--- a/data/hotels_by_city/Dallas/Dallas_shard_568.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_568.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,702 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r565921740-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>55732</t>
+  </si>
+  <si>
+    <t>244346</t>
+  </si>
+  <si>
+    <t>565921740</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Budget hotel that is noisy / cigarette smoke smell</t>
+  </si>
+  <si>
+    <t>We usually stay at a Holiday Inn but had our dog with us and the HIE in Denton has a no pets policy.  Motel 6 does always allow pets for free but it is a budget motel.  
+They clearly try to take care of this property, our room was cleaned nicely every day and the first night our heat/AC didn't work, we told them in the am and it was fixed when we returned.  I do like that they don't have carpet given the heavy wear and abuse everything shows.  They also have nice grass for the dog (many Motel 6s just have dirt/weed patches).
+The downside, the room had seen much better days.  The bedspreads were pretty gross.  The blanket/sheets were so thin they were inadequate particularly with no heat one night.  The TV remote was broken, missing a piece and a button.  
+The worst part was the noise.  The walls are so thin we could hear other people snoring, the traffic noise was horrible.  The first night someone above us clearly had a big dog that didn't settle down until after midnight.  It seemed like a lot of other guests were smoking right outside their doors or in their rooms and our room smelled of smoke (which I find disgusting).  My biggest concern the first night was driving back to our room in the late afternoon there were a lot of sketchy people hanging out, there was a...We usually stay at a Holiday Inn but had our dog with us and the HIE in Denton has a no pets policy.  Motel 6 does always allow pets for free but it is a budget motel.  They clearly try to take care of this property, our room was cleaned nicely every day and the first night our heat/AC didn't work, we told them in the am and it was fixed when we returned.  I do like that they don't have carpet given the heavy wear and abuse everything shows.  They also have nice grass for the dog (many Motel 6s just have dirt/weed patches).The downside, the room had seen much better days.  The bedspreads were pretty gross.  The blanket/sheets were so thin they were inadequate particularly with no heat one night.  The TV remote was broken, missing a piece and a button.  The worst part was the noise.  The walls are so thin we could hear other people snoring, the traffic noise was horrible.  The first night someone above us clearly had a big dog that didn't settle down until after midnight.  It seemed like a lot of other guests were smoking right outside their doors or in their rooms and our room smelled of smoke (which I find disgusting).  My biggest concern the first night was driving back to our room in the late afternoon there were a lot of sketchy people hanging out, there was a couple sleeping/relaxing in their car while their young kids ran around the property and there was a heavy smell of marijuana and a few guys sitting in lawn chairs chain smoking. I think they try, it just isn't a place I'd stay unless I had my dog with me again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>mitul_desai, General Manager at Motel 6 Denton, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>We usually stay at a Holiday Inn but had our dog with us and the HIE in Denton has a no pets policy.  Motel 6 does always allow pets for free but it is a budget motel.  
+They clearly try to take care of this property, our room was cleaned nicely every day and the first night our heat/AC didn't work, we told them in the am and it was fixed when we returned.  I do like that they don't have carpet given the heavy wear and abuse everything shows.  They also have nice grass for the dog (many Motel 6s just have dirt/weed patches).
+The downside, the room had seen much better days.  The bedspreads were pretty gross.  The blanket/sheets were so thin they were inadequate particularly with no heat one night.  The TV remote was broken, missing a piece and a button.  
+The worst part was the noise.  The walls are so thin we could hear other people snoring, the traffic noise was horrible.  The first night someone above us clearly had a big dog that didn't settle down until after midnight.  It seemed like a lot of other guests were smoking right outside their doors or in their rooms and our room smelled of smoke (which I find disgusting).  My biggest concern the first night was driving back to our room in the late afternoon there were a lot of sketchy people hanging out, there was a...We usually stay at a Holiday Inn but had our dog with us and the HIE in Denton has a no pets policy.  Motel 6 does always allow pets for free but it is a budget motel.  They clearly try to take care of this property, our room was cleaned nicely every day and the first night our heat/AC didn't work, we told them in the am and it was fixed when we returned.  I do like that they don't have carpet given the heavy wear and abuse everything shows.  They also have nice grass for the dog (many Motel 6s just have dirt/weed patches).The downside, the room had seen much better days.  The bedspreads were pretty gross.  The blanket/sheets were so thin they were inadequate particularly with no heat one night.  The TV remote was broken, missing a piece and a button.  The worst part was the noise.  The walls are so thin we could hear other people snoring, the traffic noise was horrible.  The first night someone above us clearly had a big dog that didn't settle down until after midnight.  It seemed like a lot of other guests were smoking right outside their doors or in their rooms and our room smelled of smoke (which I find disgusting).  My biggest concern the first night was driving back to our room in the late afternoon there were a lot of sketchy people hanging out, there was a couple sleeping/relaxing in their car while their young kids ran around the property and there was a heavy smell of marijuana and a few guys sitting in lawn chairs chain smoking. I think they try, it just isn't a place I'd stay unless I had my dog with me again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r558458503-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>558458503</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>It's a room</t>
+  </si>
+  <si>
+    <t>Very noisy - no carpet - basic amenities - not warm and inviting at all.  Obviously pet friendly - listened to barking dogs all night.  A really terse  argument from a few doors down.  The room was very noisy.  Water pressure in the shower was low, but was hot.  The sink didn't drain.  There was a refrigerator and a microwave as well as a Television.  Cigarette burns in the bedspread - not just one - but several.  We were in a non-smoking room.  Price - was ok - overpriced for what you get.  On the plus side- I suppose they could hose the place down every day.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Very noisy - no carpet - basic amenities - not warm and inviting at all.  Obviously pet friendly - listened to barking dogs all night.  A really terse  argument from a few doors down.  The room was very noisy.  Water pressure in the shower was low, but was hot.  The sink didn't drain.  There was a refrigerator and a microwave as well as a Television.  Cigarette burns in the bedspread - not just one - but several.  We were in a non-smoking room.  Price - was ok - overpriced for what you get.  On the plus side- I suppose they could hose the place down every day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r558172046-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>558172046</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>Family friendly and very dog friendly. Excellent service and employees! Best stay ever at this hotel. Will definitely stay longer! Owner and employees treat with up most respect and will make sure you are very comfortable. Thank you Mitch, your hotel and service is amazing! Keep up the good work! Love Motel 6 Denton tx MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>mitul_desai, General Manager at Motel 6 Denton, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Family friendly and very dog friendly. Excellent service and employees! Best stay ever at this hotel. Will definitely stay longer! Owner and employees treat with up most respect and will make sure you are very comfortable. Thank you Mitch, your hotel and service is amazing! Keep up the good work! Love Motel 6 Denton tx More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r483094551-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>483094551</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Pet friendly is the only ok thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got off the rd after 11 hours to find this had pet friendly rooms. However they arent very human friendly! Smoked in, not clean, no way to block out security lights (wuch I assume they need due to the all night activity of its regulars. Keep driving! </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r460875668-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>460875668</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Had to move...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First room had no heat. Second room bathroom door wouldn't close and the toilet seat wouldnt stay up. Not super clean but the bed was clean and comfortable. The breakfast was mediocre but serviceable. Staff was helpful. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r435681193-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>435681193</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Slept with my clothes and shoes on!</t>
+  </si>
+  <si>
+    <t>Basically avoid this place if at all possible. 80 bucks is way to much for a 25 dollar room. Mold smell stains dead air conditioning units sums this place up. Nasty moldy dirty -3 word summary. Pictures attached mold in bathroom went desk to ask for bleach spray. Sorry I was told they don't have any. Shoes sticking to floor. Used warm wash cloth to clean 2x2 area. See pics you be the judge. What is disturbing is the have a tripadvisor sticker on their front office door. I think TripAdvisor might want that back. I hope this review saves a future weary traveller. I travel a lot stateside and internationally. This ranks as one of my top 5 worst stays anywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Basically avoid this place if at all possible. 80 bucks is way to much for a 25 dollar room. Mold smell stains dead air conditioning units sums this place up. Nasty moldy dirty -3 word summary. Pictures attached mold in bathroom went desk to ask for bleach spray. Sorry I was told they don't have any. Shoes sticking to floor. Used warm wash cloth to clean 2x2 area. See pics you be the judge. What is disturbing is the have a tripadvisor sticker on their front office door. I think TripAdvisor might want that back. I hope this review saves a future weary traveller. I travel a lot stateside and internationally. This ranks as one of my top 5 worst stays anywhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r334814702-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>334814702</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>The motel 6 in Denton is on off the highway (I-35); This gives great access to the highway. The prices are relatively cheap with friendly service. The place is quiet and clean. It comes with WIFI and endless coffee as well.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r330237114-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>330237114</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Not trailer friendly</t>
+  </si>
+  <si>
+    <t>OK place but if you have a trailer be prepared to be treated as a outcast.ive stayed at lots of motel 6 locations and never have had any problems. The will not even let you park anywhere on their property. !!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r313062828-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>313062828</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Cheep and clean</t>
+  </si>
+  <si>
+    <t>The hotel was very nice, the amenities were updated and everything looked "clean." Staff were helpful and friendly. The bed was average and the towels were small, but to be expected at the price. There were a few other hotels and a gas station in walking distance, but nothing else. Very close to Texas Motor speedway.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r282117412-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>282117412</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Friendly staff everyone always smiling trying to help anyway that they can...property is always clean...cleaning service is good and the swimming are is clean and keeps my kids occupied...love it..so do my kids especially when housekeeping let's them clean the room by themselves...</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r279157708-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>279157708</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happened here? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've stayed at this motel several times over the past years. But here lately even though with renovations that have been done. They seem to have a bug problem that I have not noticed before. I saw a couple of roaches and a spider or two also. And I do worry about the comforters they are using too. Other than that hot water always and great TV to watch and a good selection of channels. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r265965671-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>265965671</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>The dollar is more important than the guest</t>
+  </si>
+  <si>
+    <t>I made reservations online but never got confirmation via email.  I punched in Motel 6 in Denton on my GPS.  I arrived and did not have a reservation but checed in at a higher price anyway.  At around 12:00am I get a call on my cell phone from Motel 6 asking if I was going to check in.  Sleeily, I informed the person I was checked in and sleeping.  Finally it became clear to both of us I checked in the wrong Motel 6 in Denton.Next morning I find I was charged by the other Motel 6 for the night.  I called and asked for my money b ack, they refused and said I should call Motel 6 corporate.I just received a resoluton letter which said I was not due a refund. Nobody from the resolution investigation team called me, I was just told I cant get a refund. Mind you, no confirmation letter from online reservation system, I stayed at a Motel 6 - an honest mistake that any customer relations would have promptly refunded.  This is an indictment of the Denton Motel 6 as well as corporate.Motel 6 is more interested in money than service, in my opinion and I will never stay at another one.Hope you get to the right hotel....you will be charged.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denton, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>I made reservations online but never got confirmation via email.  I punched in Motel 6 in Denton on my GPS.  I arrived and did not have a reservation but checed in at a higher price anyway.  At around 12:00am I get a call on my cell phone from Motel 6 asking if I was going to check in.  Sleeily, I informed the person I was checked in and sleeping.  Finally it became clear to both of us I checked in the wrong Motel 6 in Denton.Next morning I find I was charged by the other Motel 6 for the night.  I called and asked for my money b ack, they refused and said I should call Motel 6 corporate.I just received a resoluton letter which said I was not due a refund. Nobody from the resolution investigation team called me, I was just told I cant get a refund. Mind you, no confirmation letter from online reservation system, I stayed at a Motel 6 - an honest mistake that any customer relations would have promptly refunded.  This is an indictment of the Denton Motel 6 as well as corporate.Motel 6 is more interested in money than service, in my opinion and I will never stay at another one.Hope you get to the right hotel....you will be charged.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r233322239-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>233322239</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>I LOVE THIS PLACE WONT STAY ANYWHERE ELSE</t>
+  </si>
+  <si>
+    <t>I love this place management is so nice.FRONT desk as well amazing.Housekeeping keep there guest happy with fresh linens and room clean.ALSO A PLUS PET FRIENDLY.No complaints on my end. Thank you motel 6</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r231576480-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>231576480</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Overpriced - Dirty</t>
+  </si>
+  <si>
+    <t>I knew when we decided to stay at a motel 6, to expect a lower price and fewer amenities. We paid far too much for a room with one soap, only one wash cloth, and two scratchy small towels. Aside from the cheapness of everything else in the room, and the loudness of the highway right outside, it was dirty. The floor was an attractive fairly new laminate that was sticky in places, and had areas that had been sticky long enough that dirt was stuck to them. The bed spread was wrinkly and obviously not clean. The "mystery" white stains were a dead give away. The caulk around the base of the tub was black, due to dirt and mold. Overall the hotel was just dirty. The concrete of the upper level was sticky and stained everywhere, the trash can was right at the top of the stairs and stunk horribly. There was trash and spills all over the parking lot and the "grass" and landscaping was so full of pet feces I couldn't walk across it without watching every step to avoid it. We arrived late, only stayed because we were too tired to relocate, and will never stay again. Way overpriced for what it is. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I knew when we decided to stay at a motel 6, to expect a lower price and fewer amenities. We paid far too much for a room with one soap, only one wash cloth, and two scratchy small towels. Aside from the cheapness of everything else in the room, and the loudness of the highway right outside, it was dirty. The floor was an attractive fairly new laminate that was sticky in places, and had areas that had been sticky long enough that dirt was stuck to them. The bed spread was wrinkly and obviously not clean. The "mystery" white stains were a dead give away. The caulk around the base of the tub was black, due to dirt and mold. Overall the hotel was just dirty. The concrete of the upper level was sticky and stained everywhere, the trash can was right at the top of the stairs and stunk horribly. There was trash and spills all over the parking lot and the "grass" and landscaping was so full of pet feces I couldn't walk across it without watching every step to avoid it. We arrived late, only stayed because we were too tired to relocate, and will never stay again. Way overpriced for what it is. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r229348769-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>229348769</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Definitely the best hotel my family has stayed in!</t>
+  </si>
+  <si>
+    <t>My family has been staying at this location for three weeks now. We are waiting for our house to get ready. My husband travels a lot for his company so we have stayed in many hotels. This Motel 6 in Denton is by far the best! The management is very friendly and has great customer service. The rooms are very clean and the the pool is huge. I would recommend this hotel for anyone. Five stars! Completely satisfied</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r224621805-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>224621805</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Nice and updated big bathtubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was here cause my truck broke down very nice everything was updated service was friendly and it had a nice big tub. Good neighborhood. No RIF RAF running around .will stay again when down in this area </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r219103981-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>219103981</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Relaxed....comfortable atmosphere</t>
+  </si>
+  <si>
+    <t>This motel six is so clean.very friendly staff and the rooms are very well kept. I highly recommend this motel as home away from your home. When my daughter and I were having a family crisis and I had no idea what I needed to do or if I was able to get a nice motel with in the area of where I needed to be I made my first stop at this motel 6 in denton Texas and I am proud to say I didn't have to go any further than here. Most importantly every staff member that I have come to meet here is the best staff that I have ever experienced. If you are in need of anything for your stay it's all conveniently located here at the property and the location is very convenient to any and all things. I truly thank motel 6 here at 4125 n I  35 Denton Texas 76207. MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel six is so clean.very friendly staff and the rooms are very well kept. I highly recommend this motel as home away from your home. When my daughter and I were having a family crisis and I had no idea what I needed to do or if I was able to get a nice motel with in the area of where I needed to be I made my first stop at this motel 6 in denton Texas and I am proud to say I didn't have to go any further than here. Most importantly every staff member that I have come to meet here is the best staff that I have ever experienced. If you are in need of anything for your stay it's all conveniently located here at the property and the location is very convenient to any and all things. I truly thank motel 6 here at 4125 n I  35 Denton Texas 76207. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r216884756-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>216884756</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Forgot our IPad</t>
+  </si>
+  <si>
+    <t>Excellent price, clean and well maintained room. We forgot our IPad when left very early am. The night auditor retrieved the iPad immediately after we called and the manager was very cooperative in boxing it for shipping. We are very appreciative of their honesty and cooperation!  Great management staff!!!!! We will definitely stay there again on our return trip!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r207428465-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>207428465</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Great place and great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for five weeks and the rooms were clean and the staff was very acomadating.  I would recommend this to anyone.  The only drawback was the internet connection speed was slower than I expected.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r205363066-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>205363066</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Not Fancy But Very Clean</t>
+  </si>
+  <si>
+    <t>Our room had obviously been remodeled very recently.  The laminate flooring, paint, fixtures, sink and shower, bedding - everything is updated.  There are not a lot of extras - no blow dryer, no fridge/microwave, etc.  But for a quick night's stay, you can't beat this hotel for the price.  One big plus for me was internet.  I plugged in the laptop and logged in smoothly and easily.We will definitely use this location again.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r204334382-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>204334382</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Completely Upgraded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have been staying here for over a week now.  The staff is very friendly and all the rooms have been updated. It has easy access to I35, plenty of food close by, and shopping as well.  There is a nice vanity in every room with a large deep bath tub. to bath. I stayed one night in a wheelchair accessible room and must say if you are in a wheelchair this room is perfect for you.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r198854536-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>198854536</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Terrible, rude receptionists, when I asked to speak to the manager the receptionists told me to wait till morning.</t>
+  </si>
+  <si>
+    <t>Stayed there about a month ago, the receptionists(about mid 20's-30's Caucasian male) denied me the manager and said that the manager was away and that I was going to have to wait until the following morning to speak to him about our room that was supposed to have a fridge and didn't. I got into a heated argument with the receptionists about how I needed the manager to refund me the money for not having a fridge like I had asked when making the reservation(online).  He told me that he could just have the police escort me off the property.Overall very terrible, very Unsatisfied with the customer service there. And the whole time when I was arguing with the receptionist the manager was outside the whole time. I didn't know at the time untill I came in the following morning and the se guy I saw outside was standing behind the counter and said he was the manager.WORD TO THE WISE, DONT WASTE YOUR TIME DOING BUSINESS HERE, BOTH THE STAFF AND THE MANAGEMENT THERE ARERUDE AND VERY UNPROFESSIONAL.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed there about a month ago, the receptionists(about mid 20's-30's Caucasian male) denied me the manager and said that the manager was away and that I was going to have to wait until the following morning to speak to him about our room that was supposed to have a fridge and didn't. I got into a heated argument with the receptionists about how I needed the manager to refund me the money for not having a fridge like I had asked when making the reservation(online).  He told me that he could just have the police escort me off the property.Overall very terrible, very Unsatisfied with the customer service there. And the whole time when I was arguing with the receptionist the manager was outside the whole time. I didn't know at the time untill I came in the following morning and the se guy I saw outside was standing behind the counter and said he was the manager.WORD TO THE WISE, DONT WASTE YOUR TIME DOING BUSINESS HERE, BOTH THE STAFF AND THE MANAGEMENT THERE ARERUDE AND VERY UNPROFESSIONAL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r190618204-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>190618204</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>FANTASTIC</t>
+  </si>
+  <si>
+    <t>The owners and staff has made our stay extremly enjoyable and always fun. I highly recommend this location for anyone that is looking for short or long term lodging. Mitch and his crew are always on top of things and are always smiling when we see them. Folks book this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>mitul_desai, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded January 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2014</t>
+  </si>
+  <si>
+    <t>The owners and staff has made our stay extremly enjoyable and always fun. I highly recommend this location for anyone that is looking for short or long term lodging. Mitch and his crew are always on top of things and are always smiling when we see them. Folks book this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r190614581-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>190614581</t>
+  </si>
+  <si>
+    <t>If saving $$ is your objective...</t>
+  </si>
+  <si>
+    <t>I usually stay at higher end hotels but wanted to try this. The Good: cheap, good location, nice staff, easy parking, decent rooms. The Bad: absolutely no amenities. No shampoo, 1 large towel per person, no closets or hair dryer, very flat pillows. The light in the bathroom was also the vent so rumbled like a train! If I were a college student with limited funds, this is a great motel for you. For those of us with a bit more money, I think I'll spend it at a nicer place. MoreShow less</t>
+  </si>
+  <si>
+    <t>mitul_desai, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded January 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2014</t>
+  </si>
+  <si>
+    <t>I usually stay at higher end hotels but wanted to try this. The Good: cheap, good location, nice staff, easy parking, decent rooms. The Bad: absolutely no amenities. No shampoo, 1 large towel per person, no closets or hair dryer, very flat pillows. The light in the bathroom was also the vent so rumbled like a train! If I were a college student with limited funds, this is a great motel for you. For those of us with a bit more money, I think I'll spend it at a nicer place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r172301068-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>172301068</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>I was traveling to Denton, Tx and was reading some of the reviews for the hotels in town. I saw the motel 6 sign with their rate. So I stopped by and got a room. Based on the other reviews for this hotel was nothing like that. The room was clean and smelled fresh, the staff was friendly, the rooms a really nice for the value. Every time I pass through Denton I will always stop by motel 6. Thank You.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>mitul_desai, General Manager at Motel 6 Denton, responded to this reviewResponded August 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2013</t>
+  </si>
+  <si>
+    <t>I was traveling to Denton, Tx and was reading some of the reviews for the hotels in town. I saw the motel 6 sign with their rate. So I stopped by and got a room. Based on the other reviews for this hotel was nothing like that. The room was clean and smelled fresh, the staff was friendly, the rooms a really nice for the value. Every time I pass through Denton I will always stop by motel 6. Thank You.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r166273642-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>166273642</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>Only planned on staying one night but had motorcycle issue. The owner, Mitch, turned out to very helpful. The motel itself is being renovated. Everything in my room was clean and no problems at all. One problem that was not necessary an issue of the motel but travelers should know, Denton has only one taxi company with only two taxis. If you find yourself without a vehicle in that area your options are pretty limited.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>mitul_desai, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded November 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2013</t>
+  </si>
+  <si>
+    <t>Only planned on staying one night but had motorcycle issue. The owner, Mitch, turned out to very helpful. The motel itself is being renovated. Everything in my room was clean and no problems at all. One problem that was not necessary an issue of the motel but travelers should know, Denton has only one taxi company with only two taxis. If you find yourself without a vehicle in that area your options are pretty limited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r157541007-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>157541007</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>Go somewhere else</t>
+  </si>
+  <si>
+    <t>I've stayed at Motel 6 in the past and they are pretty average.  I was in town for a dog field trial that is close by and hotel prices in the area had been doubled because of Nascar and another event.  over $200. for a tonight stay at motel 6 is ridiculous.  Room smells bad.  Carpet is filthy.  Big pile of dirt and trash in the corner in the bathroom and along the baseboards.  Stains all over the carpet.  Dirt all over the door.  Door is almost impossible to open without using your shoulder to muscle in.   Supposedly they are remodeling but they certainly didn't give us a remodeled room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I've stayed at Motel 6 in the past and they are pretty average.  I was in town for a dog field trial that is close by and hotel prices in the area had been doubled because of Nascar and another event.  over $200. for a tonight stay at motel 6 is ridiculous.  Room smells bad.  Carpet is filthy.  Big pile of dirt and trash in the corner in the bathroom and along the baseboards.  Stains all over the carpet.  Dirt all over the door.  Door is almost impossible to open without using your shoulder to muscle in.   Supposedly they are remodeling but they certainly didn't give us a remodeled room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r134953814-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>134953814</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>Oh. My. God.</t>
+  </si>
+  <si>
+    <t>Checked in after a late flight, or early depending on how you look at it. It was about 5am and still dark out, and I instantly fell to sleep. Woke up around 8 and to my horror I was surrounded by FILTH. Beer bottle caps, vomit in the trash can, drawings of male and female body parts on the walls in lipstick...i think. There is NO way this room was cleaned before I arrived. Worst part: I RAN to the office, bags in tow, ready to get my money back and leave and the General Manger literally said to my face that he believed I did the damage to the room. I left immediatley and contacted the regional director. They made it more-than-right but that didnt get the stinch.of someone elses vomit out of my nose.MoreShow less</t>
+  </si>
+  <si>
+    <t>mitul_desai, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded February 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2014</t>
+  </si>
+  <si>
+    <t>Checked in after a late flight, or early depending on how you look at it. It was about 5am and still dark out, and I instantly fell to sleep. Woke up around 8 and to my horror I was surrounded by FILTH. Beer bottle caps, vomit in the trash can, drawings of male and female body parts on the walls in lipstick...i think. There is NO way this room was cleaned before I arrived. Worst part: I RAN to the office, bags in tow, ready to get my money back and leave and the General Manger literally said to my face that he believed I did the damage to the room. I left immediatley and contacted the regional director. They made it more-than-right but that didnt get the stinch.of someone elses vomit out of my nose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r131281660-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>131281660</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>Nasty Nasty Nasty!!!</t>
+  </si>
+  <si>
+    <t>Was treated to a foul odor in room upon entering. Didn't worry too much about it at first. Then, proceeded to look for bed bugs. Lifted up mattress and was rewarded with two raunchy pornographic magazines apparently left unfound by cleaning crew. Also appeared to be some nasty orange chunks/stain on the mattress, looked like puke. Sheets appeared to be worn thru and have funky stains on them, appeared to be semen. There was a "Fugitive Recovery Team" vehicle from New Jersey just below our room. Made us feel REALLLLL safe. Room door below was open and creepy looking guy with kids sitting outside smoking. They were talking and roaming the parking lots until late in the night. We saw vagrants wandering the parking lot as well. There didnt appear to be any HOURS for pool usage, so there were kids and adults yelling into the early morning while using the pool just outside our rooms. Loudest, nastiest motel I have ever stayed in, and will nEVER ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Was treated to a foul odor in room upon entering. Didn't worry too much about it at first. Then, proceeded to look for bed bugs. Lifted up mattress and was rewarded with two raunchy pornographic magazines apparently left unfound by cleaning crew. Also appeared to be some nasty orange chunks/stain on the mattress, looked like puke. Sheets appeared to be worn thru and have funky stains on them, appeared to be semen. There was a "Fugitive Recovery Team" vehicle from New Jersey just below our room. Made us feel REALLLLL safe. Room door below was open and creepy looking guy with kids sitting outside smoking. They were talking and roaming the parking lots until late in the night. We saw vagrants wandering the parking lot as well. There didnt appear to be any HOURS for pool usage, so there were kids and adults yelling into the early morning while using the pool just outside our rooms. Loudest, nastiest motel I have ever stayed in, and will nEVER ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r131227648-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>131227648</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Average Motel 6</t>
+  </si>
+  <si>
+    <t>I had stayed at this Motel 6 location years ago and decided to try it again since the rates are very good.  Although it is an old motel, it appears to be well maintained.  I didn't have any problems while staying here.  It's just off of I-35, north of US 380.  When coming off the exit ramp going southbound, you just miss the motel, which is on the service road.  You go to US 380, turn right, and turn right again on a side street going north, just before you would go under a railroad trestle if you continued on US 380 going west.  The motel is just a few blocks north of US 380.  I had a good night's sleep.  I didn't hear any noise.  I would stay here again the next time I'm in Denton.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I had stayed at this Motel 6 location years ago and decided to try it again since the rates are very good.  Although it is an old motel, it appears to be well maintained.  I didn't have any problems while staying here.  It's just off of I-35, north of US 380.  When coming off the exit ramp going southbound, you just miss the motel, which is on the service road.  You go to US 380, turn right, and turn right again on a side street going north, just before you would go under a railroad trestle if you continued on US 380 going west.  The motel is just a few blocks north of US 380.  I had a good night's sleep.  I didn't hear any noise.  I would stay here again the next time I'm in Denton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r21523746-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>21523746</t>
+  </si>
+  <si>
+    <t>11/03/2008</t>
+  </si>
+  <si>
+    <t>My jewelries were stolen out of our room</t>
+  </si>
+  <si>
+    <t>Gold jewelries were stolen out of our room, and the whole staff - from housekeeping to the desk manager to the general manager denied it.What a bull of crap...This is what we get for staying in a cheap rate motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>Gold jewelries were stolen out of our room, and the whole staff - from housekeeping to the desk manager to the general manager denied it.What a bull of crap...This is what we get for staying in a cheap rate motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r20454271-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>20454271</t>
+  </si>
+  <si>
+    <t>09/28/2008</t>
+  </si>
+  <si>
+    <t>Met my needs</t>
+  </si>
+  <si>
+    <t>I was looking for a clean, inexpensive room convenient to my route.  This Motel 6 met that.  It was a bit loud, being right next to the interstate, but I wanted convenient and had no trouble sleeping.  It is a bit old but seems well-maintained.  The room was Motel 6 sized - fine for me, alone, little luggage, but would be snug for an extended stay with spouse and lots of stuff (and less than half the price of the places with more space that I did not need.)  It was clean, though had a little of the institutional cleaner odor.  Desk staff was friendly and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>I was looking for a clean, inexpensive room convenient to my route.  This Motel 6 met that.  It was a bit loud, being right next to the interstate, but I wanted convenient and had no trouble sleeping.  It is a bit old but seems well-maintained.  The room was Motel 6 sized - fine for me, alone, little luggage, but would be snug for an extended stay with spouse and lots of stuff (and less than half the price of the places with more space that I did not need.)  It was clean, though had a little of the institutional cleaner odor.  Desk staff was friendly and professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r14983811-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>14983811</t>
+  </si>
+  <si>
+    <t>04/12/2008</t>
+  </si>
+  <si>
+    <t>Clean, Yes, but a bit too Basic!</t>
+  </si>
+  <si>
+    <t>I booked this property because of the low price and the reviewers saying it was clean.  I wasn't prepared for QUITE HOW basic this room was.  It was more like a hostel.  No shampoo or even blowdryer (had to borrow one from the office for a $5 deposit!) The room was clean and the bathrom was sparkling.  The carpet was old and this non-smoking room smelled like it had been converted from a smoking one.  Our comforter had a cigarette burn in it and the wool blanket looked like it had been around since WW II.  The walls are very thin--we could hear some person coughing up what sounded like a lung next door.  Any time someone turned water on we could hear it.  Overall, I wouldn't go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>I booked this property because of the low price and the reviewers saying it was clean.  I wasn't prepared for QUITE HOW basic this room was.  It was more like a hostel.  No shampoo or even blowdryer (had to borrow one from the office for a $5 deposit!) The room was clean and the bathrom was sparkling.  The carpet was old and this non-smoking room smelled like it had been converted from a smoking one.  Our comforter had a cigarette burn in it and the wool blanket looked like it had been around since WW II.  The walls are very thin--we could hear some person coughing up what sounded like a lung next door.  Any time someone turned water on we could hear it.  Overall, I wouldn't go back.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1341,2113 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>195</v>
+      </c>
+      <c r="X24" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>202</v>
+      </c>
+      <c r="X25" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>211</v>
+      </c>
+      <c r="X26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>220</v>
+      </c>
+      <c r="X27" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>220</v>
+      </c>
+      <c r="X28" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>235</v>
+      </c>
+      <c r="X29" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>243</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>235</v>
+      </c>
+      <c r="X30" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>250</v>
+      </c>
+      <c r="O31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>235</v>
+      </c>
+      <c r="X31" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>235</v>
+      </c>
+      <c r="X32" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>235</v>
+      </c>
+      <c r="X33" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>271</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>235</v>
+      </c>
+      <c r="X34" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_568.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_568.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>gustav2011</t>
   </si>
   <si>
     <t>06/15/2018</t>
@@ -192,6 +195,9 @@
 The worst part was the noise.  The walls are so thin we could hear other people snoring, the traffic noise was horrible.  The first night someone above us clearly had a big dog that didn't settle down until after midnight.  It seemed like a lot of other guests were smoking right outside their doors or in their rooms and our room smelled of smoke (which I find disgusting).  My biggest concern the first night was driving back to our room in the late afternoon there were a lot of sketchy people hanging out, there was a...We usually stay at a Holiday Inn but had our dog with us and the HIE in Denton has a no pets policy.  Motel 6 does always allow pets for free but it is a budget motel.  They clearly try to take care of this property, our room was cleaned nicely every day and the first night our heat/AC didn't work, we told them in the am and it was fixed when we returned.  I do like that they don't have carpet given the heavy wear and abuse everything shows.  They also have nice grass for the dog (many Motel 6s just have dirt/weed patches).The downside, the room had seen much better days.  The bedspreads were pretty gross.  The blanket/sheets were so thin they were inadequate particularly with no heat one night.  The TV remote was broken, missing a piece and a button.  The worst part was the noise.  The walls are so thin we could hear other people snoring, the traffic noise was horrible.  The first night someone above us clearly had a big dog that didn't settle down until after midnight.  It seemed like a lot of other guests were smoking right outside their doors or in their rooms and our room smelled of smoke (which I find disgusting).  My biggest concern the first night was driving back to our room in the late afternoon there were a lot of sketchy people hanging out, there was a couple sleeping/relaxing in their car while their young kids ran around the property and there was a heavy smell of marijuana and a few guys sitting in lawn chairs chain smoking. I think they try, it just isn't a place I'd stay unless I had my dog with me again.More</t>
   </si>
   <si>
+    <t>Allyson N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r558458503-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -222,6 +228,9 @@
     <t>Very noisy - no carpet - basic amenities - not warm and inviting at all.  Obviously pet friendly - listened to barking dogs all night.  A really terse  argument from a few doors down.  The room was very noisy.  Water pressure in the shower was low, but was hot.  The sink didn't drain.  There was a refrigerator and a microwave as well as a Television.  Cigarette burns in the bedspread - not just one - but several.  We were in a non-smoking room.  Price - was ok - overpriced for what you get.  On the plus side- I suppose they could hose the place down every day.More</t>
   </si>
   <si>
+    <t>Brittany K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r558172046-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>Family friendly and very dog friendly. Excellent service and employees! Best stay ever at this hotel. Will definitely stay longer! Owner and employees treat with up most respect and will make sure you are very comfortable. Thank you Mitch, your hotel and service is amazing! Keep up the good work! Love Motel 6 Denton tx More</t>
   </si>
   <si>
+    <t>gary S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r483094551-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Donna H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r460875668-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>CajunAsianOkie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r435681193-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t>Basically avoid this place if at all possible. 80 bucks is way to much for a 25 dollar room. Mold smell stains dead air conditioning units sums this place up. Nasty moldy dirty -3 word summary. Pictures attached mold in bathroom went desk to ask for bleach spray. Sorry I was told they don't have any. Shoes sticking to floor. Used warm wash cloth to clean 2x2 area. See pics you be the judge. What is disturbing is the have a tripadvisor sticker on their front office door. I think TripAdvisor might want that back. I hope this review saves a future weary traveller. I travel a lot stateside and internationally. This ranks as one of my top 5 worst stays anywhere.More</t>
   </si>
   <si>
+    <t>Terrell B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r334814702-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -330,6 +351,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Art N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r330237114-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>OK place but if you have a trailer be prepared to be treated as a outcast.ive stayed at lots of motel 6 locations and never have had any problems. The will not even let you park anywhere on their property. !!</t>
   </si>
   <si>
+    <t>Chris H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r313062828-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -363,6 +390,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Cassandra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r282117412-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Davidmonette</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r279157708-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t xml:space="preserve">I've stayed at this motel several times over the past years. But here lately even though with renovations that have been done. They seem to have a bug problem that I have not noticed before. I saw a couple of roaches and a spider or two also. And I do worry about the comforters they are using too. Other than that hot water always and great TV to watch and a good selection of channels. </t>
   </si>
   <si>
+    <t>Gordon C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r265965671-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t>I made reservations online but never got confirmation via email.  I punched in Motel 6 in Denton on my GPS.  I arrived and did not have a reservation but checed in at a higher price anyway.  At around 12:00am I get a call on my cell phone from Motel 6 asking if I was going to check in.  Sleeily, I informed the person I was checked in and sleeping.  Finally it became clear to both of us I checked in the wrong Motel 6 in Denton.Next morning I find I was charged by the other Motel 6 for the night.  I called and asked for my money b ack, they refused and said I should call Motel 6 corporate.I just received a resoluton letter which said I was not due a refund. Nobody from the resolution investigation team called me, I was just told I cant get a refund. Mind you, no confirmation letter from online reservation system, I stayed at a Motel 6 - an honest mistake that any customer relations would have promptly refunded.  This is an indictment of the Denton Motel 6 as well as corporate.Motel 6 is more interested in money than service, in my opinion and I will never stay at another one.Hope you get to the right hotel....you will be charged.More</t>
   </si>
   <si>
+    <t>Ashley E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r233322239-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -441,6 +480,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>MrsLyle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r231576480-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -462,6 +504,9 @@
     <t>I knew when we decided to stay at a motel 6, to expect a lower price and fewer amenities. We paid far too much for a room with one soap, only one wash cloth, and two scratchy small towels. Aside from the cheapness of everything else in the room, and the loudness of the highway right outside, it was dirty. The floor was an attractive fairly new laminate that was sticky in places, and had areas that had been sticky long enough that dirt was stuck to them. The bed spread was wrinkly and obviously not clean. The "mystery" white stains were a dead give away. The caulk around the base of the tub was black, due to dirt and mold. Overall the hotel was just dirty. The concrete of the upper level was sticky and stained everywhere, the trash can was right at the top of the stairs and stunk horribly. There was trash and spills all over the parking lot and the "grass" and landscaping was so full of pet feces I couldn't walk across it without watching every step to avoid it. We arrived late, only stayed because we were too tired to relocate, and will never stay again. Way overpriced for what it is. More</t>
   </si>
   <si>
+    <t>Danese37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r229348769-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -477,6 +522,9 @@
     <t>My family has been staying at this location for three weeks now. We are waiting for our house to get ready. My husband travels a lot for his company so we have stayed in many hotels. This Motel 6 in Denton is by far the best! The management is very friendly and has great customer service. The rooms are very clean and the the pool is huge. I would recommend this hotel for anyone. Five stars! Completely satisfied</t>
   </si>
   <si>
+    <t>garciatracy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r224621805-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -492,6 +540,9 @@
     <t xml:space="preserve">was here cause my truck broke down very nice everything was updated service was friendly and it had a nice big tub. Good neighborhood. No RIF RAF running around .will stay again when down in this area </t>
   </si>
   <si>
+    <t>ChristyMcMillan34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r219103981-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -510,6 +561,9 @@
     <t>This motel six is so clean.very friendly staff and the rooms are very well kept. I highly recommend this motel as home away from your home. When my daughter and I were having a family crisis and I had no idea what I needed to do or if I was able to get a nice motel with in the area of where I needed to be I made my first stop at this motel 6 in denton Texas and I am proud to say I didn't have to go any further than here. Most importantly every staff member that I have come to meet here is the best staff that I have ever experienced. If you are in need of anything for your stay it's all conveniently located here at the property and the location is very convenient to any and all things. I truly thank motel 6 here at 4125 n I  35 Denton Texas 76207. More</t>
   </si>
   <si>
+    <t>lrwlrw47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r216884756-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -528,6 +582,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Jim B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r207428465-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -543,6 +600,9 @@
     <t xml:space="preserve">Stayed here for five weeks and the rooms were clean and the staff was very acomadating.  I would recommend this to anyone.  The only drawback was the internet connection speed was slower than I expected.  </t>
   </si>
   <si>
+    <t>MICHELLE R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r205363066-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -561,6 +621,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Christinaleek75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r204334382-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -576,6 +639,9 @@
     <t xml:space="preserve">I have been staying here for over a week now.  The staff is very friendly and all the rooms have been updated. It has easy access to I35, plenty of food close by, and shopping as well.  There is a nice vanity in every room with a large deep bath tub. to bath. I stayed one night in a wheelchair accessible room and must say if you are in a wheelchair this room is perfect for you.  </t>
   </si>
   <si>
+    <t>LakaEsther</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r198854536-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -594,6 +660,9 @@
     <t>Stayed there about a month ago, the receptionists(about mid 20's-30's Caucasian male) denied me the manager and said that the manager was away and that I was going to have to wait until the following morning to speak to him about our room that was supposed to have a fridge and didn't. I got into a heated argument with the receptionists about how I needed the manager to refund me the money for not having a fridge like I had asked when making the reservation(online).  He told me that he could just have the police escort me off the property.Overall very terrible, very Unsatisfied with the customer service there. And the whole time when I was arguing with the receptionist the manager was outside the whole time. I didn't know at the time untill I came in the following morning and the se guy I saw outside was standing behind the counter and said he was the manager.WORD TO THE WISE, DONT WASTE YOUR TIME DOING BUSINESS HERE, BOTH THE STAFF AND THE MANAGEMENT THERE ARERUDE AND VERY UNPROFESSIONAL.More</t>
   </si>
   <si>
+    <t>MFountain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r190618204-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -618,6 +687,9 @@
     <t>The owners and staff has made our stay extremly enjoyable and always fun. I highly recommend this location for anyone that is looking for short or long term lodging. Mitch and his crew are always on top of things and are always smiling when we see them. Folks book this hotel!More</t>
   </si>
   <si>
+    <t>customer99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r190614581-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -639,6 +711,9 @@
     <t>I usually stay at higher end hotels but wanted to try this. The Good: cheap, good location, nice staff, easy parking, decent rooms. The Bad: absolutely no amenities. No shampoo, 1 large towel per person, no closets or hair dryer, very flat pillows. The light in the bathroom was also the vent so rumbled like a train! If I were a college student with limited funds, this is a great motel for you. For those of us with a bit more money, I think I'll spend it at a nicer place. More</t>
   </si>
   <si>
+    <t>Stacy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r172301068-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -666,6 +741,9 @@
     <t>I was traveling to Denton, Tx and was reading some of the reviews for the hotels in town. I saw the motel 6 sign with their rate. So I stopped by and got a room. Based on the other reviews for this hotel was nothing like that. The room was clean and smelled fresh, the staff was friendly, the rooms a really nice for the value. Every time I pass through Denton I will always stop by motel 6. Thank You.More</t>
   </si>
   <si>
+    <t>roncon09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r166273642-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -693,6 +771,9 @@
     <t>Only planned on staying one night but had motorcycle issue. The owner, Mitch, turned out to very helpful. The motel itself is being renovated. Everything in my room was clean and no problems at all. One problem that was not necessary an issue of the motel but travelers should know, Denton has only one taxi company with only two taxis. If you find yourself without a vehicle in that area your options are pretty limited.More</t>
   </si>
   <si>
+    <t>lurcorsr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r157541007-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -714,6 +795,9 @@
     <t>I've stayed at Motel 6 in the past and they are pretty average.  I was in town for a dog field trial that is close by and hotel prices in the area had been doubled because of Nascar and another event.  over $200. for a tonight stay at motel 6 is ridiculous.  Room smells bad.  Carpet is filthy.  Big pile of dirt and trash in the corner in the bathroom and along the baseboards.  Stains all over the carpet.  Dirt all over the door.  Door is almost impossible to open without using your shoulder to muscle in.   Supposedly they are remodeling but they certainly didn't give us a remodeled room.More</t>
   </si>
   <si>
+    <t>ja0817</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r134953814-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -738,6 +822,9 @@
     <t>Checked in after a late flight, or early depending on how you look at it. It was about 5am and still dark out, and I instantly fell to sleep. Woke up around 8 and to my horror I was surrounded by FILTH. Beer bottle caps, vomit in the trash can, drawings of male and female body parts on the walls in lipstick...i think. There is NO way this room was cleaned before I arrived. Worst part: I RAN to the office, bags in tow, ready to get my money back and leave and the General Manger literally said to my face that he believed I did the damage to the room. I left immediatley and contacted the regional director. They made it more-than-right but that didnt get the stinch.of someone elses vomit out of my nose.More</t>
   </si>
   <si>
+    <t>Traveler76504</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r131281660-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -759,6 +846,9 @@
     <t>Was treated to a foul odor in room upon entering. Didn't worry too much about it at first. Then, proceeded to look for bed bugs. Lifted up mattress and was rewarded with two raunchy pornographic magazines apparently left unfound by cleaning crew. Also appeared to be some nasty orange chunks/stain on the mattress, looked like puke. Sheets appeared to be worn thru and have funky stains on them, appeared to be semen. There was a "Fugitive Recovery Team" vehicle from New Jersey just below our room. Made us feel REALLLLL safe. Room door below was open and creepy looking guy with kids sitting outside smoking. They were talking and roaming the parking lots until late in the night. We saw vagrants wandering the parking lot as well. There didnt appear to be any HOURS for pool usage, so there were kids and adults yelling into the early morning while using the pool just outside our rooms. Loudest, nastiest motel I have ever stayed in, and will nEVER ever again.More</t>
   </si>
   <si>
+    <t>TallTexWally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r131227648-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -780,6 +870,9 @@
     <t>I had stayed at this Motel 6 location years ago and decided to try it again since the rates are very good.  Although it is an old motel, it appears to be well maintained.  I didn't have any problems while staying here.  It's just off of I-35, north of US 380.  When coming off the exit ramp going southbound, you just miss the motel, which is on the service road.  You go to US 380, turn right, and turn right again on a side street going north, just before you would go under a railroad trestle if you continued on US 380 going west.  The motel is just a few blocks north of US 380.  I had a good night's sleep.  I didn't hear any noise.  I would stay here again the next time I'm in Denton.More</t>
   </si>
   <si>
+    <t>stay_away060</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r21523746-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -801,6 +894,9 @@
     <t>Gold jewelries were stolen out of our room, and the whole staff - from housekeeping to the desk manager to the general manager denied it.What a bull of crap...This is what we get for staying in a cheap rate motel.More</t>
   </si>
   <si>
+    <t>NewOrleansBelle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r20454271-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -820,6 +916,9 @@
   </si>
   <si>
     <t>I was looking for a clean, inexpensive room convenient to my route.  This Motel 6 met that.  It was a bit loud, being right next to the interstate, but I wanted convenient and had no trouble sleeping.  It is a bit old but seems well-maintained.  The room was Motel 6 sized - fine for me, alone, little luggage, but would be snug for an extended stay with spouse and lots of stuff (and less than half the price of the places with more space that I did not need.)  It was clean, though had a little of the institutional cleaner odor.  Desk staff was friendly and professional.More</t>
+  </si>
+  <si>
+    <t>CapriSunrise</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r14983811-Motel_6_Denton-Denton_Texas.html</t>
@@ -1345,43 +1444,47 @@
       <c r="A2" t="n">
         <v>6561</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>66229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1399,56 +1502,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6561</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169357</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1466,56 +1573,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6561</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>104848</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1527,56 +1638,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6561</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169358</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1590,50 +1705,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6561</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>28171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1647,50 +1766,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6561</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169359</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1704,50 +1827,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6561</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>16742</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1767,50 +1894,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6561</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>42174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1824,50 +1955,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6561</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>265</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1885,50 +2020,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6561</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>23286</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1946,50 +2085,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6561</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2003,50 +2146,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6561</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>56453</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2058,56 +2205,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6561</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>49710</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2121,50 +2272,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>6561</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169361</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2178,41 +2333,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>6561</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169362</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -2241,41 +2400,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>6561</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169363</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
@@ -2304,41 +2467,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>6561</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169364</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -2367,50 +2534,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>6561</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169365</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2424,41 +2595,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>6561</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>18703</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -2487,50 +2662,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>6561</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>169366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2554,41 +2733,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>6561</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169367</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -2617,41 +2800,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>6561</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169368</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -2680,41 +2867,45 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>6561</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>169369</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
@@ -2741,47 +2932,51 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="X24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="Y24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>6561</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169370</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -2808,56 +3003,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="X25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>6561</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>27520</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2879,56 +3078,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="X26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>6561</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>169371</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -2950,56 +3153,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="X27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="Y27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>6561</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>169372</v>
+      </c>
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3021,47 +3228,51 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="X28" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="Y28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6561</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>169373</v>
+      </c>
+      <c r="C29" t="s">
+        <v>257</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -3088,56 +3299,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="X29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Y29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>6561</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>169374</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="J30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3159,56 +3374,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="X30" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Y30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>6561</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>169375</v>
+      </c>
+      <c r="C31" t="s">
+        <v>274</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3230,56 +3449,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="X31" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Y31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>6561</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>169376</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3299,56 +3522,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="X32" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Y32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>6561</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>169377</v>
+      </c>
+      <c r="C33" t="s">
+        <v>290</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3368,56 +3595,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="X33" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Y33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>6561</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>169378</v>
+      </c>
+      <c r="C34" t="s">
+        <v>298</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -3439,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="X34" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Y34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_568.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_568.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
   <si>
     <t>STR#</t>
   </si>
@@ -147,19 +147,94 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>gustav2011</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r608188689-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>55732</t>
+  </si>
+  <si>
+    <t>244346</t>
+  </si>
+  <si>
+    <t>608188689</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Poor statement of a Motel 6</t>
+  </si>
+  <si>
+    <t>There was no microwave or mini fridge, so for someone on insulin, this was not a good thing. Remote for TV was broken-had to hold batteries in to turn channel. Had to hunt for the ice maker to have something to keep medication cold. would only stay if there was no other place anywhere in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denton, responded to this reviewResponded 4 days ago</t>
+  </si>
+  <si>
+    <t>Responded 4 days ago</t>
+  </si>
+  <si>
+    <t>There was no microwave or mini fridge, so for someone on insulin, this was not a good thing. Remote for TV was broken-had to hold batteries in to turn channel. Had to hunt for the ice maker to have something to keep medication cold. would only stay if there was no other place anywhere in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r573144270-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>573144270</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Great room</t>
+  </si>
+  <si>
+    <t>Pros -no bugs- clean room -very quiet -pet friendly -great management -vending area has a great choice of foods and drinks - free WiFi -a/c keeps the room cool -we’ll lit rooms -water is instantly hot -beds are comfy - big laundry roomCons-most of the time the dog poop bag dispenser is empty - the tv doesn’t have a guide I think the price is great for what you get!</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r570422223-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>570422223</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst place ever </t>
+  </si>
+  <si>
+    <t>I am not a fussy traveler but this is the worst hotel I’ve ever stayed in. It stinks like urine. The sheets have stains on and hairs. The walls are so thin you can hear the neighbors TV and they came in at 2 o’clock in the morning with a baby hollering. Spend the extra money and get a decent place! Won’t even brush my teeth hereMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2018</t>
+  </si>
+  <si>
+    <t>I am not a fussy traveler but this is the worst hotel I’ve ever stayed in. It stinks like urine. The sheets have stains on and hairs. The walls are so thin you can hear the neighbors TV and they came in at 2 o’clock in the morning with a baby hollering. Spend the extra money and get a decent place! Won’t even brush my teeth hereMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r565921740-Motel_6_Denton-Denton_Texas.html</t>
-  </si>
-  <si>
-    <t>55732</t>
-  </si>
-  <si>
-    <t>244346</t>
   </si>
   <si>
     <t>565921740</t>
@@ -177,9 +252,6 @@
 The worst part was the noise.  The walls are so thin we could hear other people snoring, the traffic noise was horrible.  The first night someone above us clearly had a big dog that didn't settle down until after midnight.  It seemed like a lot of other guests were smoking right outside their doors or in their rooms and our room smelled of smoke (which I find disgusting).  My biggest concern the first night was driving back to our room in the late afternoon there were a lot of sketchy people hanging out, there was a...We usually stay at a Holiday Inn but had our dog with us and the HIE in Denton has a no pets policy.  Motel 6 does always allow pets for free but it is a budget motel.  They clearly try to take care of this property, our room was cleaned nicely every day and the first night our heat/AC didn't work, we told them in the am and it was fixed when we returned.  I do like that they don't have carpet given the heavy wear and abuse everything shows.  They also have nice grass for the dog (many Motel 6s just have dirt/weed patches).The downside, the room had seen much better days.  The bedspreads were pretty gross.  The blanket/sheets were so thin they were inadequate particularly with no heat one night.  The TV remote was broken, missing a piece and a button.  The worst part was the noise.  The walls are so thin we could hear other people snoring, the traffic noise was horrible.  The first night someone above us clearly had a big dog that didn't settle down until after midnight.  It seemed like a lot of other guests were smoking right outside their doors or in their rooms and our room smelled of smoke (which I find disgusting).  My biggest concern the first night was driving back to our room in the late afternoon there were a lot of sketchy people hanging out, there was a couple sleeping/relaxing in their car while their young kids ran around the property and there was a heavy smell of marijuana and a few guys sitting in lawn chairs chain smoking. I think they try, it just isn't a place I'd stay unless I had my dog with me again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -195,9 +267,6 @@
 The worst part was the noise.  The walls are so thin we could hear other people snoring, the traffic noise was horrible.  The first night someone above us clearly had a big dog that didn't settle down until after midnight.  It seemed like a lot of other guests were smoking right outside their doors or in their rooms and our room smelled of smoke (which I find disgusting).  My biggest concern the first night was driving back to our room in the late afternoon there were a lot of sketchy people hanging out, there was a...We usually stay at a Holiday Inn but had our dog with us and the HIE in Denton has a no pets policy.  Motel 6 does always allow pets for free but it is a budget motel.  They clearly try to take care of this property, our room was cleaned nicely every day and the first night our heat/AC didn't work, we told them in the am and it was fixed when we returned.  I do like that they don't have carpet given the heavy wear and abuse everything shows.  They also have nice grass for the dog (many Motel 6s just have dirt/weed patches).The downside, the room had seen much better days.  The bedspreads were pretty gross.  The blanket/sheets were so thin they were inadequate particularly with no heat one night.  The TV remote was broken, missing a piece and a button.  The worst part was the noise.  The walls are so thin we could hear other people snoring, the traffic noise was horrible.  The first night someone above us clearly had a big dog that didn't settle down until after midnight.  It seemed like a lot of other guests were smoking right outside their doors or in their rooms and our room smelled of smoke (which I find disgusting).  My biggest concern the first night was driving back to our room in the late afternoon there were a lot of sketchy people hanging out, there was a couple sleeping/relaxing in their car while their young kids ran around the property and there was a heavy smell of marijuana and a few guys sitting in lawn chairs chain smoking. I think they try, it just isn't a place I'd stay unless I had my dog with me again.More</t>
   </si>
   <si>
-    <t>Allyson N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r558458503-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -216,9 +285,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>6Team, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded February 7, 2018</t>
   </si>
   <si>
@@ -228,9 +294,6 @@
     <t>Very noisy - no carpet - basic amenities - not warm and inviting at all.  Obviously pet friendly - listened to barking dogs all night.  A really terse  argument from a few doors down.  The room was very noisy.  Water pressure in the shower was low, but was hot.  The sink didn't drain.  There was a refrigerator and a microwave as well as a Television.  Cigarette burns in the bedspread - not just one - but several.  We were in a non-smoking room.  Price - was ok - overpriced for what you get.  On the plus side- I suppose they could hose the place down every day.More</t>
   </si>
   <si>
-    <t>Brittany K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r558172046-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -258,7 +321,61 @@
     <t>Family friendly and very dog friendly. Excellent service and employees! Best stay ever at this hotel. Will definitely stay longer! Owner and employees treat with up most respect and will make sure you are very comfortable. Thank you Mitch, your hotel and service is amazing! Keep up the good work! Love Motel 6 Denton tx More</t>
   </si>
   <si>
-    <t>gary S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r510283737-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>510283737</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Bad costumer service</t>
+  </si>
+  <si>
+    <t>I was a walk in at this Motel 6 this past Friday. I had decided to stay there because I had gotten into a spat with my wife. However I changed my mind almost immediately(less than 10 minutes) because I wanted to stay in my own home and went back to the office to return the key and requested a refund. The clerk stated that because it was a weekend I could not receive a refund and he refused to take the key card. He did state that if I wanted to speak to a manager that he would be in on Sunday. I left the property immediately(just to clarify, I DID NOT stay at the motel) and I returned on Sunday and the manager, Mitch, stated that I should have been given my refund then. He then stated that he wanted to confirm with his employee if my statements were true by calling him and that he would call me later. I gave him a day and didn't hear anything back so I went in again and he had yet to speak to his employee, but he'd call me the following morning. The following day I went in again and he stated that I had stayed in the room long enough to tamper with it and fix it to make it appear that I was not there. He added that I was "gone too long" in order for me...I was a walk in at this Motel 6 this past Friday. I had decided to stay there because I had gotten into a spat with my wife. However I changed my mind almost immediately(less than 10 minutes) because I wanted to stay in my own home and went back to the office to return the key and requested a refund. The clerk stated that because it was a weekend I could not receive a refund and he refused to take the key card. He did state that if I wanted to speak to a manager that he would be in on Sunday. I left the property immediately(just to clarify, I DID NOT stay at the motel) and I returned on Sunday and the manager, Mitch, stated that I should have been given my refund then. He then stated that he wanted to confirm with his employee if my statements were true by calling him and that he would call me later. I gave him a day and didn't hear anything back so I went in again and he had yet to speak to his employee, but he'd call me the following morning. The following day I went in again and he stated that I had stayed in the room long enough to tamper with it and fix it to make it appear that I was not there. He added that I was "gone too long" in order for me to get a refund. My wife called customer service and explained the situation and was told that a refund should have been issued, however they called the property and Mitch told customer service that I was there for over 30 minutes and that they tracked it by the number of times I used the key card, which was only used once when I originally went into the room and again I TRIED TO RETURN THE KEY. Then we were referred back to the property manager because supposably this location is independent and the name doesn't tie it to the company, Motel 6(even though customer service had record of my short visit). I called customer service once more and they stated that the manager claimed that I had multiple people over, noise complaints and that I was smoking in a nonsmoking room. Again, I did not stay at the motel, I went home to resolve things with my wife and I stayed home. I'm not sure if they allowed someone else into the room after I left, but their surveillance footage will show that I did not stay the night there and that I did leave the property. In short, I'm out of my money because a clerk either didn't know how to do their job or didn't feel like doing their job and the manager is dishonest. I wouldn't recommend anyone stay here or do business with ANY Motel 6 at this point.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denton, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>I was a walk in at this Motel 6 this past Friday. I had decided to stay there because I had gotten into a spat with my wife. However I changed my mind almost immediately(less than 10 minutes) because I wanted to stay in my own home and went back to the office to return the key and requested a refund. The clerk stated that because it was a weekend I could not receive a refund and he refused to take the key card. He did state that if I wanted to speak to a manager that he would be in on Sunday. I left the property immediately(just to clarify, I DID NOT stay at the motel) and I returned on Sunday and the manager, Mitch, stated that I should have been given my refund then. He then stated that he wanted to confirm with his employee if my statements were true by calling him and that he would call me later. I gave him a day and didn't hear anything back so I went in again and he had yet to speak to his employee, but he'd call me the following morning. The following day I went in again and he stated that I had stayed in the room long enough to tamper with it and fix it to make it appear that I was not there. He added that I was "gone too long" in order for me...I was a walk in at this Motel 6 this past Friday. I had decided to stay there because I had gotten into a spat with my wife. However I changed my mind almost immediately(less than 10 minutes) because I wanted to stay in my own home and went back to the office to return the key and requested a refund. The clerk stated that because it was a weekend I could not receive a refund and he refused to take the key card. He did state that if I wanted to speak to a manager that he would be in on Sunday. I left the property immediately(just to clarify, I DID NOT stay at the motel) and I returned on Sunday and the manager, Mitch, stated that I should have been given my refund then. He then stated that he wanted to confirm with his employee if my statements were true by calling him and that he would call me later. I gave him a day and didn't hear anything back so I went in again and he had yet to speak to his employee, but he'd call me the following morning. The following day I went in again and he stated that I had stayed in the room long enough to tamper with it and fix it to make it appear that I was not there. He added that I was "gone too long" in order for me to get a refund. My wife called customer service and explained the situation and was told that a refund should have been issued, however they called the property and Mitch told customer service that I was there for over 30 minutes and that they tracked it by the number of times I used the key card, which was only used once when I originally went into the room and again I TRIED TO RETURN THE KEY. Then we were referred back to the property manager because supposably this location is independent and the name doesn't tie it to the company, Motel 6(even though customer service had record of my short visit). I called customer service once more and they stated that the manager claimed that I had multiple people over, noise complaints and that I was smoking in a nonsmoking room. Again, I did not stay at the motel, I went home to resolve things with my wife and I stayed home. I'm not sure if they allowed someone else into the room after I left, but their surveillance footage will show that I did not stay the night there and that I did leave the property. In short, I'm out of my money because a clerk either didn't know how to do their job or didn't feel like doing their job and the manager is dishonest. I wouldn't recommend anyone stay here or do business with ANY Motel 6 at this point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r507092071-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>507092071</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Budget motels</t>
+  </si>
+  <si>
+    <t>Great experience. Staff very courteous and accommodating. Room clean, plenty of towels. For a budget motel I could rank them with some of the very expensive that I have stayed in. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denton, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Great experience. Staff very courteous and accommodating. Room clean, plenty of towels. For a budget motel I could rank them with some of the very expensive that I have stayed in. I would stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r483094551-Motel_6_Denton-Denton_Texas.html</t>
@@ -279,12 +396,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Donna H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r460875668-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -303,9 +414,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>CajunAsianOkie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r435681193-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -327,7 +435,53 @@
     <t>Basically avoid this place if at all possible. 80 bucks is way to much for a 25 dollar room. Mold smell stains dead air conditioning units sums this place up. Nasty moldy dirty -3 word summary. Pictures attached mold in bathroom went desk to ask for bleach spray. Sorry I was told they don't have any. Shoes sticking to floor. Used warm wash cloth to clean 2x2 area. See pics you be the judge. What is disturbing is the have a tripadvisor sticker on their front office door. I think TripAdvisor might want that back. I hope this review saves a future weary traveller. I travel a lot stateside and internationally. This ranks as one of my top 5 worst stays anywhere.More</t>
   </si>
   <si>
-    <t>Terrell B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r374127040-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>374127040</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>The Manager Is Mean with a bad attitude and unfriendly</t>
+  </si>
+  <si>
+    <t>I have been in this motel 6, 2 times but the third one was a nightmare experience.
+I booked a room as usual a non-smoking one. 
+1. On arriving to my room i was welcomed with a horrible smell like sour milk and feet mixed. I called the front desk immediately to have them switch me to another room but i was told there were no other Non-smoking one left. Since i was really tired i dint care much but to go ahead and spend my night anyway so i went to take a shower. 
+2. As i was taking a shower i noticed the water wasn't draining guess the people who used the room before had blocked it (How comes the room attendants din't notice yet they were cleaning??????). I called it in and i was told they can't do anything by then so i have to wait till morning they'd send someone. 
+3. Another terrible thing was that the room din't have Either a MICROWAVE nor a REFRIGERATOR. After taking a shower i was hungry ready to warm my food when i was dumbfounded after i realized they din't have both. What a mess!! OMG Not  again.. Calling the lobby for a third time same night wasn't  pleasant atall but i had to , i wasn't there for free i paid for the best services. 
+What a coincidence!! i went a head and called in again as pissed...I have been in this motel 6, 2 times but the third one was a nightmare experience.I booked a room as usual a non-smoking one. 1. On arriving to my room i was welcomed with a horrible smell like sour milk and feet mixed. I called the front desk immediately to have them switch me to another room but i was told there were no other Non-smoking one left. Since i was really tired i dint care much but to go ahead and spend my night anyway so i went to take a shower. 2. As i was taking a shower i noticed the water wasn't draining guess the people who used the room before had blocked it (How comes the room attendants din't notice yet they were cleaning??????). I called it in and i was told they can't do anything by then so i have to wait till morning they'd send someone. 3. Another terrible thing was that the room din't have Either a MICROWAVE nor a REFRIGERATOR. After taking a shower i was hungry ready to warm my food when i was dumbfounded after i realized they din't have both. What a mess!! OMG Not  again.. Calling the lobby for a third time same night wasn't  pleasant atall but i had to , i wasn't there for free i paid for the best services. What a coincidence!! i went a head and called in again as pissed off. This was my worst night ever. I was told that some rooms are different and if i really wanted one with both fridge and microwave i had to add more money, IF NOT I CAN GO WARM MY FOOD IN THE LOBBY there was a microwave.!!!! i was so pissed i slept hungry. My first hotel EVER to find they charge extra for the two. WOW!!!4. That morning came. Rmbr checking out time is 11a.m and it was around 10:45 a.m when they sent Amigo to unblock the bathe tab and took like 25 minutes as i waited and after he was done i went ahead and took a shower. While still in the shower i heard the room attendant knocking at the door and after few knocks she unlocked the door asking me if am staying or leaving. I dint answer her since i was still in the shower. REALLY? They just sent amigo to fix the drainage and here they are trying to hurry me up as if the manager din't communicate with them about my room. This was Pathetic and kinda Rude!!!** When i went to checkout and return the key i met this Indian guy who is the manager and tried to hold a conversation as i complained about the whole nightmare, he seemed to not care about it trying to argue that it has never happened before and instead of being sorry or apologetic, he told me he will look into the matter and that was it. He took my key and went into the office stating he is doing something back there and since i dint have any choice i left. Can't go back again!!!!! i declared.WHAT A HORRIBLE EXPERIENCE!!!!5. Just 2 days ago i happened to be in the area once again and since i had declared i will never go there, unfortunately i was left with the same choice since other hotels in the area were all full so i dint have a choice rather than to go back to motel 6 hoping that time would b differrent.I went in there met this lady with another indian guy who are always there for the night shift. They asked for my ID for the booking process and after few minutes they both gazed at me trying to break some news to me. She told me due to my past experience in the hotel i cant be allowed to do any booking in the future. She told me the manager authorized it and they can't do nothing to help me that i should come and talk to the manager if i want. HELL NO!! Talk with him for what? Because i reported all those messy stuffs and their worse services he had me blocked in their system. Really? What kind of a manager is this surely? Rude... Mean.. Selfish.. Unfriendly....  name it....The truth will set you free.. That's why they are never full coz of this bad service not to forget the price they advertise on the billboard is there just to attract customers and when you go in there it's a whole different scenario of $ 10 plus and when you ask you will be told that offer is not available anymore yet it's showing up there.***So many un answered questions!!!!!*** I dont like Drama but this one got me Off Guard!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I have been in this motel 6, 2 times but the third one was a nightmare experience.
+I booked a room as usual a non-smoking one. 
+1. On arriving to my room i was welcomed with a horrible smell like sour milk and feet mixed. I called the front desk immediately to have them switch me to another room but i was told there were no other Non-smoking one left. Since i was really tired i dint care much but to go ahead and spend my night anyway so i went to take a shower. 
+2. As i was taking a shower i noticed the water wasn't draining guess the people who used the room before had blocked it (How comes the room attendants din't notice yet they were cleaning??????). I called it in and i was told they can't do anything by then so i have to wait till morning they'd send someone. 
+3. Another terrible thing was that the room din't have Either a MICROWAVE nor a REFRIGERATOR. After taking a shower i was hungry ready to warm my food when i was dumbfounded after i realized they din't have both. What a mess!! OMG Not  again.. Calling the lobby for a third time same night wasn't  pleasant atall but i had to , i wasn't there for free i paid for the best services. 
+What a coincidence!! i went a head and called in again as pissed...I have been in this motel 6, 2 times but the third one was a nightmare experience.I booked a room as usual a non-smoking one. 1. On arriving to my room i was welcomed with a horrible smell like sour milk and feet mixed. I called the front desk immediately to have them switch me to another room but i was told there were no other Non-smoking one left. Since i was really tired i dint care much but to go ahead and spend my night anyway so i went to take a shower. 2. As i was taking a shower i noticed the water wasn't draining guess the people who used the room before had blocked it (How comes the room attendants din't notice yet they were cleaning??????). I called it in and i was told they can't do anything by then so i have to wait till morning they'd send someone. 3. Another terrible thing was that the room din't have Either a MICROWAVE nor a REFRIGERATOR. After taking a shower i was hungry ready to warm my food when i was dumbfounded after i realized they din't have both. What a mess!! OMG Not  again.. Calling the lobby for a third time same night wasn't  pleasant atall but i had to , i wasn't there for free i paid for the best services. What a coincidence!! i went a head and called in again as pissed off. This was my worst night ever. I was told that some rooms are different and if i really wanted one with both fridge and microwave i had to add more money, IF NOT I CAN GO WARM MY FOOD IN THE LOBBY there was a microwave.!!!! i was so pissed i slept hungry. My first hotel EVER to find they charge extra for the two. WOW!!!4. That morning came. Rmbr checking out time is 11a.m and it was around 10:45 a.m when they sent Amigo to unblock the bathe tab and took like 25 minutes as i waited and after he was done i went ahead and took a shower. While still in the shower i heard the room attendant knocking at the door and after few knocks she unlocked the door asking me if am staying or leaving. I dint answer her since i was still in the shower. REALLY? They just sent amigo to fix the drainage and here they are trying to hurry me up as if the manager din't communicate with them about my room. This was Pathetic and kinda Rude!!!** When i went to checkout and return the key i met this Indian guy who is the manager and tried to hold a conversation as i complained about the whole nightmare, he seemed to not care about it trying to argue that it has never happened before and instead of being sorry or apologetic, he told me he will look into the matter and that was it. He took my key and went into the office stating he is doing something back there and since i dint have any choice i left. Can't go back again!!!!! i declared.WHAT A HORRIBLE EXPERIENCE!!!!5. Just 2 days ago i happened to be in the area once again and since i had declared i will never go there, unfortunately i was left with the same choice since other hotels in the area were all full so i dint have a choice rather than to go back to motel 6 hoping that time would b differrent.I went in there met this lady with another indian guy who are always there for the night shift. They asked for my ID for the booking process and after few minutes they both gazed at me trying to break some news to me. She told me due to my past experience in the hotel i cant be allowed to do any booking in the future. She told me the manager authorized it and they can't do nothing to help me that i should come and talk to the manager if i want. HELL NO!! Talk with him for what? Because i reported all those messy stuffs and their worse services he had me blocked in their system. Really? What kind of a manager is this surely? Rude... Mean.. Selfish.. Unfriendly....  name it....The truth will set you free.. That's why they are never full coz of this bad service not to forget the price they advertise on the billboard is there just to attract customers and when you go in there it's a whole different scenario of $ 10 plus and when you ask you will be told that offer is not available anymore yet it's showing up there.***So many un answered questions!!!!!*** I dont like Drama but this one got me Off Guard!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r338734233-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>338734233</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Eww</t>
+  </si>
+  <si>
+    <t>Very outdated. The room smelled bad. The shower was absolutely nasty. Stains on the bed sheets. And no Wi-Fi. Walls are paper thin because I could hear a whole conversation from the people next door. I never stay in Motel 6's but every other hotel was sold out and we really needs to rest..</t>
+  </si>
+  <si>
+    <t>January 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r334814702-Motel_6_Denton-Denton_Texas.html</t>
@@ -348,12 +502,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Art N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r330237114-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -369,9 +517,6 @@
     <t>OK place but if you have a trailer be prepared to be treated as a outcast.ive stayed at lots of motel 6 locations and never have had any problems. The will not even let you park anywhere on their property. !!</t>
   </si>
   <si>
-    <t>Chris H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r313062828-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -390,7 +535,43 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Cassandra S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r294529008-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>294529008</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Great place and service.</t>
+  </si>
+  <si>
+    <t>me and my husband has been here for over a month and these people are really kinda and polite. I would love if other people would come over and visit motel 6. When we needed things they have it for you in a second.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r292528104-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>292528104</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Home...for now. They really do keep the light on!</t>
+  </si>
+  <si>
+    <t>After our house burned down my husband, Michael and I found ourselves, thanks to our church, at the Motel 6 at 4125 N I-35 in Denton, TX. We must have looked a sight that day, tried and bedraggled with our little dog in tow. But Mitch Desai and his staff made us feel welcome. Our rooms was VERY clean and we found the staff to be very warm, friendly and more than willing to do what it took to make our stay a comfortable one. The grounds are well kept and we even enjoyed the pool, very nice on a warm day I might add! The Motel is wonderfully located near many restaurants  and stores and a comfortable distance  from both of our jobs. We have enjoyed our stay very much. We have felt so comfortable here, that we plan to stay through the summer and plan to come back as long as Mitch and his team are here. The price has easily fit into our budget without adding more stress to our lives, and with all of it put together has made a trying time  in our lives a lot easier. We HIGHLY recommend  Motel 6 to everyone. Thanks again. Seven Patton.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>After our house burned down my husband, Michael and I found ourselves, thanks to our church, at the Motel 6 at 4125 N I-35 in Denton, TX. We must have looked a sight that day, tried and bedraggled with our little dog in tow. But Mitch Desai and his staff made us feel welcome. Our rooms was VERY clean and we found the staff to be very warm, friendly and more than willing to do what it took to make our stay a comfortable one. The grounds are well kept and we even enjoyed the pool, very nice on a warm day I might add! The Motel is wonderfully located near many restaurants  and stores and a comfortable distance  from both of our jobs. We have enjoyed our stay very much. We have felt so comfortable here, that we plan to stay through the summer and plan to come back as long as Mitch and his team are here. The price has easily fit into our budget without adding more stress to our lives, and with all of it put together has made a trying time  in our lives a lot easier. We HIGHLY recommend  Motel 6 to everyone. Thanks again. Seven Patton.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r282117412-Motel_6_Denton-Denton_Texas.html</t>
@@ -408,12 +589,6 @@
     <t>Friendly staff everyone always smiling trying to help anyway that they can...property is always clean...cleaning service is good and the swimming are is clean and keeps my kids occupied...love it..so do my kids especially when housekeeping let's them clean the room by themselves...</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
-    <t>Davidmonette</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r279157708-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -429,9 +604,6 @@
     <t xml:space="preserve">I've stayed at this motel several times over the past years. But here lately even though with renovations that have been done. They seem to have a bug problem that I have not noticed before. I saw a couple of roaches and a spider or two also. And I do worry about the comforters they are using too. Other than that hot water always and great TV to watch and a good selection of channels. </t>
   </si>
   <si>
-    <t>Gordon C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r265965671-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -459,7 +631,54 @@
     <t>I made reservations online but never got confirmation via email.  I punched in Motel 6 in Denton on my GPS.  I arrived and did not have a reservation but checed in at a higher price anyway.  At around 12:00am I get a call on my cell phone from Motel 6 asking if I was going to check in.  Sleeily, I informed the person I was checked in and sleeping.  Finally it became clear to both of us I checked in the wrong Motel 6 in Denton.Next morning I find I was charged by the other Motel 6 for the night.  I called and asked for my money b ack, they refused and said I should call Motel 6 corporate.I just received a resoluton letter which said I was not due a refund. Nobody from the resolution investigation team called me, I was just told I cant get a refund. Mind you, no confirmation letter from online reservation system, I stayed at a Motel 6 - an honest mistake that any customer relations would have promptly refunded.  This is an indictment of the Denton Motel 6 as well as corporate.Motel 6 is more interested in money than service, in my opinion and I will never stay at another one.Hope you get to the right hotel....you will be charged.More</t>
   </si>
   <si>
-    <t>Ashley E</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r237384017-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>237384017</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Low maintenance</t>
+  </si>
+  <si>
+    <t>As soon as I closed the door and walked away it opened on it's own,you had to lock it to keep it closed, the heater didn't work,the light above the sink was out and the laundry matt washing area was not a secure area, card lock wasn't operating, had clothes taken..Notified management and they were unable to do anything..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r233443280-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>233443280</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Just keep on driving out of Denton</t>
+  </si>
+  <si>
+    <t>I can only surmise that the glowing reviews here are either from people who stayed at a different Motel 6 in Denton (there are two) or are shills paid to give this property good reviews.
+Because the fact is: this is a pit, and deserves to close or to be taken over by management that isn’t interested in trying to squeeze the last dollar out of place that is well on its way to becoming a rent-by-the-hour.
+To begin with, I made an online reservation using a company discount code. When I arrived, the manager (Andy) said he could not “verify” the code and refused to accept the rate. At that point, I had been travelling in Texas for a week and had stayed exclusively at Motel 6s. No one had given me any problems about the code or about the discount. He was rude and dismissive and gave the clear impression that he suspected me of trying to pull one over on him.
+Because I was thoroughly PO’d by this, I called customer service. They, in turn, called Andy who, despite everything, still refused to honor the discount, offering me instead a rate that was $5 higher than the negotiated rate. Fine. In order to get $5 more out of me, he was willing to alienate a regular customer. 
+Once I got in the room, however, I regretted even that extra $5! The floors are wooden but, in the...I can only surmise that the glowing reviews here are either from people who stayed at a different Motel 6 in Denton (there are two) or are shills paid to give this property good reviews.Because the fact is: this is a pit, and deserves to close or to be taken over by management that isn’t interested in trying to squeeze the last dollar out of place that is well on its way to becoming a rent-by-the-hour.To begin with, I made an online reservation using a company discount code. When I arrived, the manager (Andy) said he could not “verify” the code and refused to accept the rate. At that point, I had been travelling in Texas for a week and had stayed exclusively at Motel 6s. No one had given me any problems about the code or about the discount. He was rude and dismissive and gave the clear impression that he suspected me of trying to pull one over on him.Because I was thoroughly PO’d by this, I called customer service. They, in turn, called Andy who, despite everything, still refused to honor the discount, offering me instead a rate that was $5 higher than the negotiated rate. Fine. In order to get $5 more out of me, he was willing to alienate a regular customer. Once I got in the room, however, I regretted even that extra $5! The floors are wooden but, in the bathroom, have been completely ruined by water damage. They were seriously warped, loose, and coming up from the floor – so much so, in fact, that they are dangerous. I wore shoes in the room because going into the bathroom meant risking a cut on the edges of the upturned boards or a slip on a board that was no longer attached to the floor. The shower drain was literally an ugly black hole in the floor of the shower stall.In general, the room was spartan and particularly ugly, even for a Motel 6 (and I’ve stayed in some nice Motel 6s, including the one in Hillsboro, TX, e.g., which is really well maintained and comfortable). The room I was given was about 30 yards from the I35 freeway, and the traffic noise was spectacular. The towels are few and are of the cheap, thin, scratchy variety that are soaked and useless after you’ve gotten about half your body dried off.As an added touch, the TV was bolted to the right wall – perpendicular to the bed and at such an extreme angle that it was impossible to watch TV from the bed. Given that there were no chairs in the room, there essentially was no way to view the TV other than sitting on the floor in front of it, which I chose not to do.In a week in the wider Dallas/Ft. Worth area, this was the worst Motel 6 I stayed in. I could have forgiven the less than ideal furnishings and run-down condition of the room, but Andy’s treatment of me and his generally pissy attitude pushed the experience over the edge into terrible. Yes, I understand there was some problem with my discount code, but how much would it have cost him – in goodwill – simply to accept the reservation and tell me to check when I got home and figure out why the code was no longer working? In short, don’t stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denton, responded to this reviewResponded October 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2014</t>
+  </si>
+  <si>
+    <t>I can only surmise that the glowing reviews here are either from people who stayed at a different Motel 6 in Denton (there are two) or are shills paid to give this property good reviews.
+Because the fact is: this is a pit, and deserves to close or to be taken over by management that isn’t interested in trying to squeeze the last dollar out of place that is well on its way to becoming a rent-by-the-hour.
+To begin with, I made an online reservation using a company discount code. When I arrived, the manager (Andy) said he could not “verify” the code and refused to accept the rate. At that point, I had been travelling in Texas for a week and had stayed exclusively at Motel 6s. No one had given me any problems about the code or about the discount. He was rude and dismissive and gave the clear impression that he suspected me of trying to pull one over on him.
+Because I was thoroughly PO’d by this, I called customer service. They, in turn, called Andy who, despite everything, still refused to honor the discount, offering me instead a rate that was $5 higher than the negotiated rate. Fine. In order to get $5 more out of me, he was willing to alienate a regular customer. 
+Once I got in the room, however, I regretted even that extra $5! The floors are wooden but, in the...I can only surmise that the glowing reviews here are either from people who stayed at a different Motel 6 in Denton (there are two) or are shills paid to give this property good reviews.Because the fact is: this is a pit, and deserves to close or to be taken over by management that isn’t interested in trying to squeeze the last dollar out of place that is well on its way to becoming a rent-by-the-hour.To begin with, I made an online reservation using a company discount code. When I arrived, the manager (Andy) said he could not “verify” the code and refused to accept the rate. At that point, I had been travelling in Texas for a week and had stayed exclusively at Motel 6s. No one had given me any problems about the code or about the discount. He was rude and dismissive and gave the clear impression that he suspected me of trying to pull one over on him.Because I was thoroughly PO’d by this, I called customer service. They, in turn, called Andy who, despite everything, still refused to honor the discount, offering me instead a rate that was $5 higher than the negotiated rate. Fine. In order to get $5 more out of me, he was willing to alienate a regular customer. Once I got in the room, however, I regretted even that extra $5! The floors are wooden but, in the bathroom, have been completely ruined by water damage. They were seriously warped, loose, and coming up from the floor – so much so, in fact, that they are dangerous. I wore shoes in the room because going into the bathroom meant risking a cut on the edges of the upturned boards or a slip on a board that was no longer attached to the floor. The shower drain was literally an ugly black hole in the floor of the shower stall.In general, the room was spartan and particularly ugly, even for a Motel 6 (and I’ve stayed in some nice Motel 6s, including the one in Hillsboro, TX, e.g., which is really well maintained and comfortable). The room I was given was about 30 yards from the I35 freeway, and the traffic noise was spectacular. The towels are few and are of the cheap, thin, scratchy variety that are soaked and useless after you’ve gotten about half your body dried off.As an added touch, the TV was bolted to the right wall – perpendicular to the bed and at such an extreme angle that it was impossible to watch TV from the bed. Given that there were no chairs in the room, there essentially was no way to view the TV other than sitting on the floor in front of it, which I chose not to do.In a week in the wider Dallas/Ft. Worth area, this was the worst Motel 6 I stayed in. I could have forgiven the less than ideal furnishings and run-down condition of the room, but Andy’s treatment of me and his generally pissy attitude pushed the experience over the edge into terrible. Yes, I understand there was some problem with my discount code, but how much would it have cost him – in goodwill – simply to accept the reservation and tell me to check when I got home and figure out why the code was no longer working? In short, don’t stay here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r233322239-Motel_6_Denton-Denton_Texas.html</t>
@@ -477,12 +696,6 @@
     <t>I love this place management is so nice.FRONT desk as well amazing.Housekeeping keep there guest happy with fresh linens and room clean.ALSO A PLUS PET FRIENDLY.No complaints on my end. Thank you motel 6</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
-    <t>MrsLyle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r231576480-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -504,9 +717,6 @@
     <t>I knew when we decided to stay at a motel 6, to expect a lower price and fewer amenities. We paid far too much for a room with one soap, only one wash cloth, and two scratchy small towels. Aside from the cheapness of everything else in the room, and the loudness of the highway right outside, it was dirty. The floor was an attractive fairly new laminate that was sticky in places, and had areas that had been sticky long enough that dirt was stuck to them. The bed spread was wrinkly and obviously not clean. The "mystery" white stains were a dead give away. The caulk around the base of the tub was black, due to dirt and mold. Overall the hotel was just dirty. The concrete of the upper level was sticky and stained everywhere, the trash can was right at the top of the stairs and stunk horribly. There was trash and spills all over the parking lot and the "grass" and landscaping was so full of pet feces I couldn't walk across it without watching every step to avoid it. We arrived late, only stayed because we were too tired to relocate, and will never stay again. Way overpriced for what it is. More</t>
   </si>
   <si>
-    <t>Danese37</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r229348769-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -522,7 +732,34 @@
     <t>My family has been staying at this location for three weeks now. We are waiting for our house to get ready. My husband travels a lot for his company so we have stayed in many hotels. This Motel 6 in Denton is by far the best! The management is very friendly and has great customer service. The rooms are very clean and the the pool is huge. I would recommend this hotel for anyone. Five stars! Completely satisfied</t>
   </si>
   <si>
-    <t>garciatracy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r229113032-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>229113032</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Nice room, nice looking pool, hard bed</t>
+  </si>
+  <si>
+    <t>Pretty good area and easy to get on and off of I-35. Nice looking pool but we were too tired to use it. Bed was hard, but room was clean and big for a motel 6. Cold A/C, clean towels and sheets, flat screen tv. Internet was a little slow but it was free.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r228290787-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>228290787</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>Got a tip for you!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had car problems and stopped here overnight. It was a motel 6 so I didn't expect much but it was clean and comfortable and quiet. Good value. Now it has no box springs but if you get 2 beds and stack one mattress on top of the other, it makes for a very comfortable bed!! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r224621805-Motel_6_Denton-Denton_Texas.html</t>
@@ -540,9 +777,6 @@
     <t xml:space="preserve">was here cause my truck broke down very nice everything was updated service was friendly and it had a nice big tub. Good neighborhood. No RIF RAF running around .will stay again when down in this area </t>
   </si>
   <si>
-    <t>ChristyMcMillan34</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r219103981-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -561,9 +795,6 @@
     <t>This motel six is so clean.very friendly staff and the rooms are very well kept. I highly recommend this motel as home away from your home. When my daughter and I were having a family crisis and I had no idea what I needed to do or if I was able to get a nice motel with in the area of where I needed to be I made my first stop at this motel 6 in denton Texas and I am proud to say I didn't have to go any further than here. Most importantly every staff member that I have come to meet here is the best staff that I have ever experienced. If you are in need of anything for your stay it's all conveniently located here at the property and the location is very convenient to any and all things. I truly thank motel 6 here at 4125 n I  35 Denton Texas 76207. More</t>
   </si>
   <si>
-    <t>lrwlrw47</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r216884756-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -582,7 +813,40 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>Jim B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r215748892-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>215748892</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>very clean</t>
+  </si>
+  <si>
+    <t>Everyone was very nice and helpful. My 14yr. Old daughter enjoyed her stay  as well. The rooms are very clean and recently painted. I have really enjoyed my stay here and will likely come back. I f eel like the staff really made me fill welcome. I would recommend this hotel to all my friends and family members. The cost was within my budget and the staff here was amazing!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r209735910-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>209735910</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Fantastic !!</t>
+  </si>
+  <si>
+    <t>I've been staying here for a little bit now for work, and I have to say I am very impressed by not only the amazing staff that I've had the opportunity to get to know such as Mitch, Andy and Steve and let's not forget the very sweet and helpful housekeepers who actually have a huge impact on this establishment, because how clean the room and grounds are, (first and last impressions if you will). That being said since I've been here I've noticed that the staff has gone the extra mile in making the grounds look fabulous with Spring gardening and its nice to lay out by the refreshing pool and see all the pretty flowers or walk around the property and see them too. The other guests here seem to be really nice as well yes noisy at times but that's anywhere you go. This establishment may not have all the amenities of the higher end hotels but it certainly has the BEST rate in town whether its daily or weekly!! So when you're in the area and needing a clean, safe environment, make sure you stay here at Motel 6 off of North I-35 they'll leave the light on for ya. HahahahahahaMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I've been staying here for a little bit now for work, and I have to say I am very impressed by not only the amazing staff that I've had the opportunity to get to know such as Mitch, Andy and Steve and let's not forget the very sweet and helpful housekeepers who actually have a huge impact on this establishment, because how clean the room and grounds are, (first and last impressions if you will). That being said since I've been here I've noticed that the staff has gone the extra mile in making the grounds look fabulous with Spring gardening and its nice to lay out by the refreshing pool and see all the pretty flowers or walk around the property and see them too. The other guests here seem to be really nice as well yes noisy at times but that's anywhere you go. This establishment may not have all the amenities of the higher end hotels but it certainly has the BEST rate in town whether its daily or weekly!! So when you're in the area and needing a clean, safe environment, make sure you stay here at Motel 6 off of North I-35 they'll leave the light on for ya. HahahahahahaMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r207428465-Motel_6_Denton-Denton_Texas.html</t>
@@ -600,9 +864,6 @@
     <t xml:space="preserve">Stayed here for five weeks and the rooms were clean and the staff was very acomadating.  I would recommend this to anyone.  The only drawback was the internet connection speed was slower than I expected.  </t>
   </si>
   <si>
-    <t>MICHELLE R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r205363066-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -621,9 +882,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Christinaleek75</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r204334382-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -639,7 +897,40 @@
     <t xml:space="preserve">I have been staying here for over a week now.  The staff is very friendly and all the rooms have been updated. It has easy access to I35, plenty of food close by, and shopping as well.  There is a nice vanity in every room with a large deep bath tub. to bath. I stayed one night in a wheelchair accessible room and must say if you are in a wheelchair this room is perfect for you.  </t>
   </si>
   <si>
-    <t>LakaEsther</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r203906769-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>203906769</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>Just as Expected</t>
+  </si>
+  <si>
+    <t>Stayed here in November &amp; December, 2013 as a one night stop before collecting our RV.  Room was exactly as expected, small but tidy and clean.  I wouldn't call management over friendly but courteous enough.  They let us park the big rv near our room so we could pack so overall we were happy with our stay.   Traffic and locals were a little noisy at times, but it is on the Interstate so traffic noise expected.  Walking distance to shops, eateries, and pick up depot was the reason for our stay and this hotel facilitated all these.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r198938264-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>198938264</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Rude, unprofessional place</t>
+  </si>
+  <si>
+    <t>Spend your money elsewhere. The whole management here are screwed up. They handle issues very unprofessionally I booked a room with certain amenities and did not receive it, meanwhile, I was still charged for those amenities. The rooms are super crammed and dirty.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r198854536-Motel_6_Denton-Denton_Texas.html</t>
@@ -660,9 +951,6 @@
     <t>Stayed there about a month ago, the receptionists(about mid 20's-30's Caucasian male) denied me the manager and said that the manager was away and that I was going to have to wait until the following morning to speak to him about our room that was supposed to have a fridge and didn't. I got into a heated argument with the receptionists about how I needed the manager to refund me the money for not having a fridge like I had asked when making the reservation(online).  He told me that he could just have the police escort me off the property.Overall very terrible, very Unsatisfied with the customer service there. And the whole time when I was arguing with the receptionist the manager was outside the whole time. I didn't know at the time untill I came in the following morning and the se guy I saw outside was standing behind the counter and said he was the manager.WORD TO THE WISE, DONT WASTE YOUR TIME DOING BUSINESS HERE, BOTH THE STAFF AND THE MANAGEMENT THERE ARERUDE AND VERY UNPROFESSIONAL.More</t>
   </si>
   <si>
-    <t>MFountain</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r190618204-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -687,9 +975,6 @@
     <t>The owners and staff has made our stay extremly enjoyable and always fun. I highly recommend this location for anyone that is looking for short or long term lodging. Mitch and his crew are always on top of things and are always smiling when we see them. Folks book this hotel!More</t>
   </si>
   <si>
-    <t>customer99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r190614581-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -711,7 +996,52 @@
     <t>I usually stay at higher end hotels but wanted to try this. The Good: cheap, good location, nice staff, easy parking, decent rooms. The Bad: absolutely no amenities. No shampoo, 1 large towel per person, no closets or hair dryer, very flat pillows. The light in the bathroom was also the vent so rumbled like a train! If I were a college student with limited funds, this is a great motel for you. For those of us with a bit more money, I think I'll spend it at a nicer place. More</t>
   </si>
   <si>
-    <t>Stacy A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r187978756-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>187978756</t>
+  </si>
+  <si>
+    <t>12/18/2013</t>
+  </si>
+  <si>
+    <t>Nice upgraded Motel 6, convenient</t>
+  </si>
+  <si>
+    <t>We love this Motel 6 for its convenient access to leave I-35 and jump on 287 for the next day's trip to Colorado. There is a Denny's next door and they will give you a 20% discount if you show them your room key. The rooms have been remodeled, and although very basic without amenities, it has a very updated European boutique feel. The floors are now laminate instead of carpet and this keeps a very "clean" feel to the room. Enough outdoor area for the dog to be walked in the local area. Feels very safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>mitul_desai, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded January 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2014</t>
+  </si>
+  <si>
+    <t>We love this Motel 6 for its convenient access to leave I-35 and jump on 287 for the next day's trip to Colorado. There is a Denny's next door and they will give you a 20% discount if you show them your room key. The rooms have been remodeled, and although very basic without amenities, it has a very updated European boutique feel. The floors are now laminate instead of carpet and this keeps a very "clean" feel to the room. Enough outdoor area for the dog to be walked in the local area. Feels very safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r174044847-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>174044847</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Nice place to stay on a budget.</t>
+  </si>
+  <si>
+    <t>My husband and our twin boys stayed here for 2 nights. Friendly service at check-in and check-out. Room was clean and had been remodeled. Loved the fact they remodeled with hard wood flooring. Updated TV with computer connection. Plenty of towels in the room. Pool was clean. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>mitul_desai, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded November 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2013</t>
+  </si>
+  <si>
+    <t>My husband and our twin boys stayed here for 2 nights. Friendly service at check-in and check-out. Room was clean and had been remodeled. Loved the fact they remodeled with hard wood flooring. Updated TV with computer connection. Plenty of towels in the room. Pool was clean. Would definitely stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r172301068-Motel_6_Denton-Denton_Texas.html</t>
@@ -741,9 +1071,6 @@
     <t>I was traveling to Denton, Tx and was reading some of the reviews for the hotels in town. I saw the motel 6 sign with their rate. So I stopped by and got a room. Based on the other reviews for this hotel was nothing like that. The room was clean and smelled fresh, the staff was friendly, the rooms a really nice for the value. Every time I pass through Denton I will always stop by motel 6. Thank You.More</t>
   </si>
   <si>
-    <t>roncon09</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r166273642-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -762,18 +1089,9 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>mitul_desai, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded November 3, 2013</t>
-  </si>
-  <si>
-    <t>Responded November 3, 2013</t>
-  </si>
-  <si>
     <t>Only planned on staying one night but had motorcycle issue. The owner, Mitch, turned out to very helpful. The motel itself is being renovated. Everything in my room was clean and no problems at all. One problem that was not necessary an issue of the motel but travelers should know, Denton has only one taxi company with only two taxis. If you find yourself without a vehicle in that area your options are pretty limited.More</t>
   </si>
   <si>
-    <t>lurcorsr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r157541007-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -795,7 +1113,55 @@
     <t>I've stayed at Motel 6 in the past and they are pretty average.  I was in town for a dog field trial that is close by and hotel prices in the area had been doubled because of Nascar and another event.  over $200. for a tonight stay at motel 6 is ridiculous.  Room smells bad.  Carpet is filthy.  Big pile of dirt and trash in the corner in the bathroom and along the baseboards.  Stains all over the carpet.  Dirt all over the door.  Door is almost impossible to open without using your shoulder to muscle in.   Supposedly they are remodeling but they certainly didn't give us a remodeled room.More</t>
   </si>
   <si>
-    <t>ja0817</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r154803165-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>154803165</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Roach on wall</t>
+  </si>
+  <si>
+    <t>Partially renovated room but had a baby roach on the wall when I walked in the room. Management couple were super nice and very understanding. Area was very undesirable. Lots of traffic noise on freeway side. Advertised as renovated rooms, however the rooms still had old bathrooms and old furniture and very old tvs.MoreShow less</t>
+  </si>
+  <si>
+    <t>mitul_desai, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded November 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2013</t>
+  </si>
+  <si>
+    <t>Partially renovated room but had a baby roach on the wall when I walked in the room. Management couple were super nice and very understanding. Area was very undesirable. Lots of traffic noise on freeway side. Advertised as renovated rooms, however the rooms still had old bathrooms and old furniture and very old tvs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r139114665-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>139114665</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>Homely</t>
+  </si>
+  <si>
+    <t>Motel 6 recently was bought by a man named Mitch, and at first I was skeptical but now I see he is a man who runs his Motel like a house. The staff is amazing, and it just feels like home free WiFi, outdoor pool, and with a great selection of cable TV there's always something to do.. Motel 6 is also in such a great location, being next to a Denny's, Dairy Queen, and Waffle House then across the I-35 over pass Walmart, Subway, and ENDLESS possibility of fun. Defiantly a great place to stay. We're also very close to both UNT and TWU so college students Joyce!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>mitul_desai, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded February 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2014</t>
+  </si>
+  <si>
+    <t>Motel 6 recently was bought by a man named Mitch, and at first I was skeptical but now I see he is a man who runs his Motel like a house. The staff is amazing, and it just feels like home free WiFi, outdoor pool, and with a great selection of cable TV there's always something to do.. Motel 6 is also in such a great location, being next to a Denny's, Dairy Queen, and Waffle House then across the I-35 over pass Walmart, Subway, and ENDLESS possibility of fun. Defiantly a great place to stay. We're also very close to both UNT and TWU so college students Joyce!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r134953814-Motel_6_Denton-Denton_Texas.html</t>
@@ -813,18 +1179,9 @@
     <t>Checked in after a late flight, or early depending on how you look at it. It was about 5am and still dark out, and I instantly fell to sleep. Woke up around 8 and to my horror I was surrounded by FILTH. Beer bottle caps, vomit in the trash can, drawings of male and female body parts on the walls in lipstick...i think. There is NO way this room was cleaned before I arrived. Worst part: I RAN to the office, bags in tow, ready to get my money back and leave and the General Manger literally said to my face that he believed I did the damage to the room. I left immediatley and contacted the regional director. They made it more-than-right but that didnt get the stinch.of someone elses vomit out of my nose.MoreShow less</t>
   </si>
   <si>
-    <t>mitul_desai, Guest Relations Manager at Motel 6 Denton, responded to this reviewResponded February 9, 2014</t>
-  </si>
-  <si>
-    <t>Responded February 9, 2014</t>
-  </si>
-  <si>
     <t>Checked in after a late flight, or early depending on how you look at it. It was about 5am and still dark out, and I instantly fell to sleep. Woke up around 8 and to my horror I was surrounded by FILTH. Beer bottle caps, vomit in the trash can, drawings of male and female body parts on the walls in lipstick...i think. There is NO way this room was cleaned before I arrived. Worst part: I RAN to the office, bags in tow, ready to get my money back and leave and the General Manger literally said to my face that he believed I did the damage to the room. I left immediatley and contacted the regional director. They made it more-than-right but that didnt get the stinch.of someone elses vomit out of my nose.More</t>
   </si>
   <si>
-    <t>Traveler76504</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r131281660-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -846,9 +1203,6 @@
     <t>Was treated to a foul odor in room upon entering. Didn't worry too much about it at first. Then, proceeded to look for bed bugs. Lifted up mattress and was rewarded with two raunchy pornographic magazines apparently left unfound by cleaning crew. Also appeared to be some nasty orange chunks/stain on the mattress, looked like puke. Sheets appeared to be worn thru and have funky stains on them, appeared to be semen. There was a "Fugitive Recovery Team" vehicle from New Jersey just below our room. Made us feel REALLLLL safe. Room door below was open and creepy looking guy with kids sitting outside smoking. They were talking and roaming the parking lots until late in the night. We saw vagrants wandering the parking lot as well. There didnt appear to be any HOURS for pool usage, so there were kids and adults yelling into the early morning while using the pool just outside our rooms. Loudest, nastiest motel I have ever stayed in, and will nEVER ever again.More</t>
   </si>
   <si>
-    <t>TallTexWally</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r131227648-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -870,7 +1224,46 @@
     <t>I had stayed at this Motel 6 location years ago and decided to try it again since the rates are very good.  Although it is an old motel, it appears to be well maintained.  I didn't have any problems while staying here.  It's just off of I-35, north of US 380.  When coming off the exit ramp going southbound, you just miss the motel, which is on the service road.  You go to US 380, turn right, and turn right again on a side street going north, just before you would go under a railroad trestle if you continued on US 380 going west.  The motel is just a few blocks north of US 380.  I had a good night's sleep.  I didn't hear any noise.  I would stay here again the next time I'm in Denton.More</t>
   </si>
   <si>
-    <t>stay_away060</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r129641402-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>129641402</t>
+  </si>
+  <si>
+    <t>05/09/2012</t>
+  </si>
+  <si>
+    <t>Wouldn't recommend it</t>
+  </si>
+  <si>
+    <t>I booked at Motel 6 Denton because we had stayed at a nice, remodeled Motel 6 in Lewisville, Texas and thought we could save some money since we were going to be in Denton for a long time.  Mistake.  Because of flight delays, we arrived at the hotel around 2:30 in the morning.  We were given the last room available and when we arrived at the door to our room, it was open.  We discovered the lock on the door didn't work, so the door wouldn't stay closed.  When we called the front desk, we were told there was no one there that time of night that could fix it, so the only thing they could do is give us our money back.  So here we were, in the middle of the night, having to find a last minute hotel to stay in.  In addition, the hotel felt unsafe - there were loud, drunk partiers around the property.  I feel they were fully aware of the non-locking door and just wanted to unload that room on someone.  Lesson learned: you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I booked at Motel 6 Denton because we had stayed at a nice, remodeled Motel 6 in Lewisville, Texas and thought we could save some money since we were going to be in Denton for a long time.  Mistake.  Because of flight delays, we arrived at the hotel around 2:30 in the morning.  We were given the last room available and when we arrived at the door to our room, it was open.  We discovered the lock on the door didn't work, so the door wouldn't stay closed.  When we called the front desk, we were told there was no one there that time of night that could fix it, so the only thing they could do is give us our money back.  So here we were, in the middle of the night, having to find a last minute hotel to stay in.  In addition, the hotel felt unsafe - there were loud, drunk partiers around the property.  I feel they were fully aware of the non-locking door and just wanted to unload that room on someone.  Lesson learned: you get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r101349973-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>101349973</t>
+  </si>
+  <si>
+    <t>03/24/2011</t>
+  </si>
+  <si>
+    <t>YourAverage Motel 6</t>
+  </si>
+  <si>
+    <t>I generally stay in a Motel 6 while traveling because of the price and because they allow pets without charging extra fees.Stayed at this location for 3 nights while attending 35 Conferette. It was clean and the staff was friendly. Nothing too fancy, but totally served its purpose.Our room was about halfway down on the pool side. We didn't have any issues with noise from the highway.A quick note about Denton: there's only one cab company and during the music festival there was only one driver on duty (considering this festival draws thousands, we were floored by this). Driver was nice but the dispatcher was not honest about wait times at all. 20 minute waits turned into 1-2 hour waits. Most of the hotels are out on the highway, about 3-4 miles from downtown. After using the cab the first night, we decided to drive or find rides the rest of the fest.The festival was a blast and would definitely recommend this motel as an economic place to stay. If you plan on "enjoying the bars" just make sure you have a ride worked out or be prepared to wait a while for a cab.MoreShow less</t>
+  </si>
+  <si>
+    <t>mitul_desai, Public Relations Manager at Motel 6 Denton, responded to this reviewResponded February 9, 2014</t>
+  </si>
+  <si>
+    <t>I generally stay in a Motel 6 while traveling because of the price and because they allow pets without charging extra fees.Stayed at this location for 3 nights while attending 35 Conferette. It was clean and the staff was friendly. Nothing too fancy, but totally served its purpose.Our room was about halfway down on the pool side. We didn't have any issues with noise from the highway.A quick note about Denton: there's only one cab company and during the music festival there was only one driver on duty (considering this festival draws thousands, we were floored by this). Driver was nice but the dispatcher was not honest about wait times at all. 20 minute waits turned into 1-2 hour waits. Most of the hotels are out on the highway, about 3-4 miles from downtown. After using the cab the first night, we decided to drive or find rides the rest of the fest.The festival was a blast and would definitely recommend this motel as an economic place to stay. If you plan on "enjoying the bars" just make sure you have a ride worked out or be prepared to wait a while for a cab.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r21523746-Motel_6_Denton-Denton_Texas.html</t>
@@ -894,9 +1287,6 @@
     <t>Gold jewelries were stolen out of our room, and the whole staff - from housekeeping to the desk manager to the general manager denied it.What a bull of crap...This is what we get for staying in a cheap rate motel.More</t>
   </si>
   <si>
-    <t>NewOrleansBelle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r20454271-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -918,9 +1308,6 @@
     <t>I was looking for a clean, inexpensive room convenient to my route.  This Motel 6 met that.  It was a bit loud, being right next to the interstate, but I wanted convenient and had no trouble sleeping.  It is a bit old but seems well-maintained.  The room was Motel 6 sized - fine for me, alone, little luggage, but would be snug for an extended stay with spouse and lots of stuff (and less than half the price of the places with more space that I did not need.)  It was clean, though had a little of the institutional cleaner odor.  Desk staff was friendly and professional.More</t>
   </si>
   <si>
-    <t>CapriSunrise</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r14983811-Motel_6_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -940,6 +1327,42 @@
   </si>
   <si>
     <t>I booked this property because of the low price and the reviewers saying it was clean.  I wasn't prepared for QUITE HOW basic this room was.  It was more like a hostel.  No shampoo or even blowdryer (had to borrow one from the office for a $5 deposit!) The room was clean and the bathrom was sparkling.  The carpet was old and this non-smoking room smelled like it had been converted from a smoking one.  Our comforter had a cigarette burn in it and the wool blanket looked like it had been around since WW II.  The walls are very thin--we could hear some person coughing up what sounded like a lung next door.  Any time someone turned water on we could hear it.  Overall, I wouldn't go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r3620500-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>3620500</t>
+  </si>
+  <si>
+    <t>06/28/2005</t>
+  </si>
+  <si>
+    <t>Super clean Motel 6</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights.  Basic accomodations, but rooms were extra clean and front desk helpful.  Didn't use pool, but it looked fine.  If you don't need frills, but want to be assured it will be clean, stay here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights.  Basic accomodations, but rooms were extra clean and front desk helpful.  Didn't use pool, but it looked fine.  If you don't need frills, but want to be assured it will be clean, stay here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d244346-r1908081-Motel_6_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>1908081</t>
+  </si>
+  <si>
+    <t>05/09/2004</t>
+  </si>
+  <si>
+    <t>Above average for an older motel</t>
+  </si>
+  <si>
+    <t>We haven't stayed in a motel in years but because they allow pets, we will stay here again when we travel with our dog.  It has the basics, clean room, TV, air conditioning, good water pressure in the shower...nothing fancy.  Make sure you ask for the back section or you will hear road noise all night long.  The staff is very friendly and helpful.  The stay brought back memories of road trips with my family when I was a kid.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We haven't stayed in a motel in years but because they allow pets, we will stay here again when we travel with our dog.  It has the basics, clean room, TV, air conditioning, good water pressure in the shower...nothing fancy.  Make sure you ask for the back section or you will hear road noise all night long.  The staff is very friendly and helpful.  The stay brought back memories of road trips with my family when I was a kid.  More</t>
   </si>
 </sst>
 </file>
@@ -1444,189 +1867,167 @@
       <c r="A2" t="n">
         <v>6561</v>
       </c>
-      <c r="B2" t="n">
-        <v>66229</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6561</v>
       </c>
-      <c r="B3" t="n">
-        <v>169357</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6561</v>
       </c>
-      <c r="B4" t="n">
-        <v>104848</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1638,182 +2039,190 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6561</v>
       </c>
-      <c r="B5" t="n">
-        <v>169358</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6561</v>
       </c>
-      <c r="B6" t="n">
-        <v>28171</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6561</v>
       </c>
-      <c r="B7" t="n">
-        <v>169359</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
         <v>95</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" t="s">
-        <v>85</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1824,124 +2233,118 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6561</v>
       </c>
-      <c r="B8" t="n">
-        <v>16742</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6561</v>
       </c>
-      <c r="B9" t="n">
-        <v>42174</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>113</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>114</v>
       </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1952,166 +2355,150 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6561</v>
       </c>
-      <c r="B10" t="n">
-        <v>265</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6561</v>
       </c>
-      <c r="B11" t="n">
-        <v>23286</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6561</v>
       </c>
-      <c r="B12" t="n">
-        <v>169360</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
         <v>131</v>
@@ -2126,13 +2513,13 @@
         <v>134</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2146,119 +2533,113 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6561</v>
       </c>
-      <c r="B13" t="n">
-        <v>56453</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>142</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
         <v>143</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6561</v>
       </c>
-      <c r="B14" t="n">
-        <v>49710</v>
-      </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
         <v>146</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>147</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>148</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
         <v>149</v>
       </c>
-      <c r="L14" t="s">
-        <v>150</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>151</v>
-      </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2272,194 +2653,180 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>6561</v>
       </c>
-      <c r="B15" t="n">
-        <v>169361</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
         <v>153</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>154</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>155</v>
       </c>
-      <c r="K15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>158</v>
-      </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>6561</v>
       </c>
-      <c r="B16" t="n">
-        <v>169362</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>6561</v>
       </c>
-      <c r="B17" t="n">
-        <v>169363</v>
-      </c>
-      <c r="C17" t="s">
-        <v>166</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2467,60 +2834,56 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>6561</v>
       </c>
-      <c r="B18" t="n">
-        <v>169364</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>95</v>
+      </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
         <v>5</v>
       </c>
@@ -2534,54 +2897,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>6561</v>
       </c>
-      <c r="B19" t="n">
-        <v>169365</v>
-      </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2595,63 +2954,57 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>6561</v>
       </c>
-      <c r="B20" t="n">
-        <v>18703</v>
-      </c>
-      <c r="C20" t="s">
-        <v>186</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
         <v>5</v>
       </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2662,186 +3015,162 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>6561</v>
       </c>
-      <c r="B21" t="n">
-        <v>169366</v>
-      </c>
-      <c r="C21" t="s">
-        <v>192</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>6561</v>
       </c>
-      <c r="B22" t="n">
-        <v>169367</v>
-      </c>
-      <c r="C22" t="s">
-        <v>199</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>6561</v>
       </c>
-      <c r="B23" t="n">
-        <v>169368</v>
-      </c>
-      <c r="C23" t="s">
-        <v>205</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s"/>
       <c r="O23" t="s"/>
@@ -2852,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -2867,816 +3196,2351 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>6561</v>
       </c>
-      <c r="B24" t="n">
-        <v>169369</v>
-      </c>
-      <c r="C24" t="s">
-        <v>212</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="X24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>6561</v>
       </c>
-      <c r="B25" t="n">
-        <v>169370</v>
-      </c>
-      <c r="C25" t="s">
-        <v>221</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
         <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>226</v>
-      </c>
-      <c r="X25" t="s">
-        <v>227</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>6561</v>
       </c>
-      <c r="B26" t="n">
-        <v>27520</v>
-      </c>
-      <c r="C26" t="s">
-        <v>229</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>236</v>
-      </c>
-      <c r="X26" t="s">
-        <v>237</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>6561</v>
       </c>
-      <c r="B27" t="n">
-        <v>169371</v>
-      </c>
-      <c r="C27" t="s">
-        <v>239</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>245</v>
-      </c>
-      <c r="O27" t="s">
-        <v>85</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>246</v>
-      </c>
-      <c r="X27" t="s">
-        <v>247</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>6561</v>
       </c>
-      <c r="B28" t="n">
-        <v>169372</v>
-      </c>
-      <c r="C28" t="s">
-        <v>249</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="O28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>246</v>
-      </c>
-      <c r="X28" t="s">
-        <v>247</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6561</v>
       </c>
-      <c r="B29" t="n">
-        <v>169373</v>
-      </c>
-      <c r="C29" t="s">
-        <v>257</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="J29" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>263</v>
-      </c>
-      <c r="X29" t="s">
-        <v>264</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>6561</v>
       </c>
-      <c r="B30" t="n">
-        <v>169374</v>
-      </c>
-      <c r="C30" t="s">
-        <v>266</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="J30" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>272</v>
-      </c>
-      <c r="O30" t="s">
-        <v>108</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>263</v>
-      </c>
-      <c r="X30" t="s">
-        <v>264</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>6561</v>
       </c>
-      <c r="B31" t="n">
-        <v>169375</v>
-      </c>
-      <c r="C31" t="s">
-        <v>274</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="J31" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="K31" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>280</v>
-      </c>
-      <c r="O31" t="s">
-        <v>85</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>263</v>
-      </c>
-      <c r="X31" t="s">
-        <v>264</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>6561</v>
       </c>
-      <c r="B32" t="n">
-        <v>169376</v>
-      </c>
-      <c r="C32" t="s">
-        <v>282</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>263</v>
-      </c>
-      <c r="X32" t="s">
-        <v>264</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>6561</v>
       </c>
-      <c r="B33" t="n">
-        <v>169377</v>
-      </c>
-      <c r="C33" t="s">
-        <v>290</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="K33" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" t="s">
+        <v>95</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s">
-        <v>296</v>
-      </c>
-      <c r="O33" t="s">
-        <v>85</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
-      <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>263</v>
-      </c>
-      <c r="X33" t="s">
-        <v>264</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>6561</v>
       </c>
-      <c r="B34" t="n">
-        <v>169378</v>
-      </c>
-      <c r="C34" t="s">
-        <v>298</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>267</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s">
+        <v>278</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s">
+        <v>95</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>281</v>
+      </c>
+      <c r="J37" t="s">
+        <v>282</v>
+      </c>
+      <c r="K37" t="s">
+        <v>283</v>
+      </c>
+      <c r="L37" t="s">
+        <v>284</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>290</v>
+      </c>
+      <c r="O38" t="s">
+        <v>95</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>292</v>
+      </c>
+      <c r="J39" t="s">
+        <v>293</v>
+      </c>
+      <c r="K39" t="s">
+        <v>294</v>
+      </c>
+      <c r="L39" t="s">
+        <v>295</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>296</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>297</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40" t="s">
+        <v>299</v>
+      </c>
+      <c r="K40" t="s">
+        <v>300</v>
+      </c>
+      <c r="L40" t="s">
+        <v>301</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" t="s">
+        <v>306</v>
+      </c>
+      <c r="L41" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>308</v>
+      </c>
+      <c r="X41" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" t="s">
+        <v>314</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>315</v>
+      </c>
+      <c r="X42" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>290</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>323</v>
+      </c>
+      <c r="X43" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s">
+        <v>330</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>331</v>
+      </c>
+      <c r="X44" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
         <v>44</v>
       </c>
-      <c r="F34" t="s">
-        <v>299</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>334</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>335</v>
+      </c>
+      <c r="J45" t="s">
+        <v>336</v>
+      </c>
+      <c r="K45" t="s">
+        <v>337</v>
+      </c>
+      <c r="L45" t="s">
+        <v>338</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>339</v>
+      </c>
+      <c r="O45" t="s">
+        <v>105</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>340</v>
+      </c>
+      <c r="X45" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>343</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>344</v>
+      </c>
+      <c r="J46" t="s">
+        <v>345</v>
+      </c>
+      <c r="K46" t="s">
+        <v>346</v>
+      </c>
+      <c r="L46" t="s">
+        <v>347</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>348</v>
+      </c>
+      <c r="O46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>331</v>
+      </c>
+      <c r="X46" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s">
+        <v>353</v>
+      </c>
+      <c r="L47" t="s">
+        <v>354</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>355</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>331</v>
+      </c>
+      <c r="X47" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
         <v>47</v>
       </c>
-      <c r="I34" t="s">
-        <v>300</v>
-      </c>
-      <c r="J34" t="s">
-        <v>301</v>
-      </c>
-      <c r="K34" t="s">
-        <v>302</v>
-      </c>
-      <c r="L34" t="s">
-        <v>303</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
         <v>2</v>
       </c>
-      <c r="N34" t="s">
-        <v>304</v>
-      </c>
-      <c r="O34" t="s">
-        <v>64</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>362</v>
+      </c>
+      <c r="X48" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>366</v>
+      </c>
+      <c r="J49" t="s">
+        <v>367</v>
+      </c>
+      <c r="K49" t="s">
+        <v>368</v>
+      </c>
+      <c r="L49" t="s">
+        <v>369</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>370</v>
+      </c>
+      <c r="O49" t="s">
+        <v>95</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>371</v>
+      </c>
+      <c r="X49" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>375</v>
+      </c>
+      <c r="J50" t="s">
+        <v>376</v>
+      </c>
+      <c r="K50" t="s">
+        <v>377</v>
+      </c>
+      <c r="L50" t="s">
+        <v>378</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>371</v>
+      </c>
+      <c r="X50" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" t="s">
+        <v>382</v>
+      </c>
+      <c r="K51" t="s">
+        <v>383</v>
+      </c>
+      <c r="L51" t="s">
+        <v>384</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>385</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>371</v>
+      </c>
+      <c r="X51" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>387</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>388</v>
+      </c>
+      <c r="J52" t="s">
+        <v>389</v>
+      </c>
+      <c r="K52" t="s">
+        <v>390</v>
+      </c>
+      <c r="L52" t="s">
+        <v>391</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>392</v>
+      </c>
+      <c r="O52" t="s">
+        <v>105</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>371</v>
+      </c>
+      <c r="X52" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>394</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>395</v>
+      </c>
+      <c r="J53" t="s">
+        <v>396</v>
+      </c>
+      <c r="K53" t="s">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s">
+        <v>398</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>399</v>
+      </c>
+      <c r="O53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>371</v>
+      </c>
+      <c r="X53" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>401</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>402</v>
+      </c>
+      <c r="J54" t="s">
+        <v>403</v>
+      </c>
+      <c r="K54" t="s">
+        <v>404</v>
+      </c>
+      <c r="L54" t="s">
+        <v>405</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>406</v>
+      </c>
+      <c r="X54" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>408</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>409</v>
+      </c>
+      <c r="J55" t="s">
+        <v>410</v>
+      </c>
+      <c r="K55" t="s">
+        <v>411</v>
+      </c>
+      <c r="L55" t="s">
+        <v>412</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>413</v>
+      </c>
+      <c r="O55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
         <v>2</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
         <v>2</v>
       </c>
-      <c r="R34" t="n">
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>371</v>
+      </c>
+      <c r="X55" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>415</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>416</v>
+      </c>
+      <c r="J56" t="s">
+        <v>417</v>
+      </c>
+      <c r="K56" t="s">
+        <v>418</v>
+      </c>
+      <c r="L56" t="s">
+        <v>419</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>420</v>
+      </c>
+      <c r="O56" t="s">
+        <v>105</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>371</v>
+      </c>
+      <c r="X56" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>422</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>423</v>
+      </c>
+      <c r="J57" t="s">
+        <v>424</v>
+      </c>
+      <c r="K57" t="s">
+        <v>425</v>
+      </c>
+      <c r="L57" t="s">
+        <v>426</v>
+      </c>
+      <c r="M57" t="n">
         <v>2</v>
       </c>
-      <c r="S34" t="n">
+      <c r="N57" t="s">
+        <v>427</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
         <v>3</v>
       </c>
-      <c r="T34" t="s"/>
-      <c r="U34" t="n">
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
         <v>4</v>
       </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s">
-        <v>263</v>
-      </c>
-      <c r="X34" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>305</v>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>371</v>
+      </c>
+      <c r="X57" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>429</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>430</v>
+      </c>
+      <c r="J58" t="s">
+        <v>431</v>
+      </c>
+      <c r="K58" t="s">
+        <v>432</v>
+      </c>
+      <c r="L58" t="s">
+        <v>433</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>371</v>
+      </c>
+      <c r="X58" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6561</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>435</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>436</v>
+      </c>
+      <c r="J59" t="s">
+        <v>437</v>
+      </c>
+      <c r="K59" t="s">
+        <v>438</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>371</v>
+      </c>
+      <c r="X59" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
